--- a/Growth/Output/Tables.xlsx
+++ b/Growth/Output/Tables.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahmunk/Desktop/Projects/Acropora_Regeneration-main/Growth/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1E0A7E-6F7B-DE49-8E6E-607C9980A3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9AF88-C9CB-9043-9536-7481E09E219D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{93EC686E-7E07-024F-8313-03B2053EB837}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="18000" activeTab="8" xr2:uid="{93EC686E-7E07-024F-8313-03B2053EB837}"/>
   </bookViews>
   <sheets>
     <sheet name="growth.tables" sheetId="1" r:id="rId1"/>
     <sheet name="cox" sheetId="2" r:id="rId2"/>
     <sheet name="kaplan meier" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="results.summary" sheetId="4" r:id="rId4"/>
+    <sheet name="respiration" sheetId="5" r:id="rId5"/>
+    <sheet name="net photosynthesis" sheetId="6" r:id="rId6"/>
+    <sheet name="gross photosynthesis" sheetId="7" r:id="rId7"/>
+    <sheet name="dailyPR" sheetId="8" r:id="rId8"/>
+    <sheet name="metabolism" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'kaplan meier'!$A$39:$H$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="124">
   <si>
     <t>Fixed Effects</t>
   </si>
@@ -107,9 +115,6 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S2. Results from Cox proportional hazards model. Significance is indicated by a hazards ratio (HR) less than 1, confidence interval not over lapping 1, and a p-value &lt; 0.05. </t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -134,41 +139,331 @@
     <t>SE</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S4. Results from Kaplan–Meier survival analysis with injury as a predictor variable with full regeneration  as the event instead of survival. Time is median time to full regeneration, n.risk is the number of individuals that have not reached the event, n.event is the number of individuals who reached the event at that time step, survival is the proportion of individuals who have not yet reached the event, SE is standard error, and CI is confidence interval. </t>
-  </si>
-  <si>
     <t>Predictor  variable</t>
   </si>
   <si>
     <t>Injury x Temperature</t>
   </si>
   <si>
-    <t>0.07,2.16</t>
-  </si>
-  <si>
-    <t>0.09,2.26</t>
-  </si>
-  <si>
     <t>Injury x Temp</t>
   </si>
   <si>
     <t>Abrasion x Elevated</t>
   </si>
   <si>
-    <t>0.07,5.76</t>
-  </si>
-  <si>
-    <t>Table S1. Linear mixed-effects model results for calcification  rate (mg cm-2 day-1) with Satterthwaite’s approximation for degrees of freedom.</t>
-  </si>
-  <si>
     <t>Table S2. Linear mixed-effects model results for buoyant growth  rate (mg cm-2 day-1) with Satterthwaite’s approximation for degrees of freedom.</t>
+  </si>
+  <si>
+    <t>Response Variable</t>
+  </si>
+  <si>
+    <t>Coral Growth</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>Respiration</t>
+  </si>
+  <si>
+    <t>Net Photosynthesis</t>
+  </si>
+  <si>
+    <t>Gross Photosynthesis</t>
+  </si>
+  <si>
+    <t>Daily P:R Ratio</t>
+  </si>
+  <si>
+    <t>Effect of Temperature</t>
+  </si>
+  <si>
+    <t>Effect of Injury</t>
+  </si>
+  <si>
+    <t>Injury and Temperature  Interaction</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant effect of temperature (LMM; F = 12.0837; P &lt; 0.001). Tukey pairwise comparisons indicate fragmented corals in ambient temperature have lower respiration than fragmented (p=0.042)  and  abrased corals ( p=0.034) in elevated temperature. </t>
+  </si>
+  <si>
+    <t>day -7</t>
+  </si>
+  <si>
+    <t>day 1</t>
+  </si>
+  <si>
+    <t>day 10</t>
+  </si>
+  <si>
+    <t>day 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant interaction with time (LMM; F = 7.18;  P &lt; 0.01) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant interaction with time (LMM; F = 6.21;  P = 0.013) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant effect of temperature (LMM; F = 20.98; P &lt; 0.001). Tukey pairwise comparisons indicate that uninjured corals at elevated temperature have higher net photosynthesis than uninjured corals at ambient temperature (p = 0.035) .  Also fragmented corlas at ambient temprautre have lower net photosynthesis than uninjured (p= 0.004) and abrasied (p = 0.03) corals at elevated temperature. </t>
+  </si>
+  <si>
+    <t>Significant interation between injury and temperature (LMM; F = 6.69; P= 0.002). Abrased corals at ambient temp lowered net photosynthesis by x% compared to control ambient corals (p = 0.016). For abrased corals net photosyntehsis is higher at elevated temperature (p = 0.0028)</t>
+  </si>
+  <si>
+    <t>Significant effect of temperature (LMM; F = 12.24; p &lt; 0.001). Tukey pairwise comparison indicates that fragmented corals at ambient temp have lowed gross photosyntheisis than uninjured corals at elevated temperature (p = 0.006).</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Significant effect of time (LMM; F = 20.25; P &lt;  0.0001)</t>
+  </si>
+  <si>
+    <t>Significant interaction with time (LMM; F = 8.6; P &lt; 0.01)</t>
+  </si>
+  <si>
+    <t>Significant effect of temperature (LMM; F = 4.45; P = 0.037)</t>
+  </si>
+  <si>
+    <t>Daily P:R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant effect of temperature (LMM; F = 16.56; P &lt; 0.001), no significant pairwise comparisons </t>
+  </si>
+  <si>
+    <t>Photosynthetic Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant interaction with time (LMM; F = 16.24;  P &lt; 0.0001) </t>
+  </si>
+  <si>
+    <t>temp is significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant interaction of injury and temperature (LMM; F= 6.68, P = 0.002). Pairwise comparion reveals that abrased corals at ambient temp have lower P:R ratio than those at elevated temp. Also abrased corals at ambient have lower ratio compared to uninjured controls. </t>
+  </si>
+  <si>
+    <t>Significant interaction of injury and temperature (LMM; F = 3.25; P = 0.045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant interaction of injury and temperature (LMM; F = 3.28; P= 0.044). Where gross photosynthesis is x higher in ambient vs elevated uninjured corals, gross photosynthesis is x and x higher in fragmented and abrased corals at elevated temperature, respectively. </t>
+  </si>
+  <si>
+    <t>Abrased corals at elevated temperature healed slower than fragmented corals at ambient temperature (Cox; HR = 0.11, 95% CI: 0.02–0.70, P = 0.020)</t>
+  </si>
+  <si>
+    <t>Table X. Results of the effects of injury, temperature, time, and interactions on response variables  measured in this study. Growth, respiration and  photosynthesis rates, and photosynthetic efficiency are from linear mixed  effects models  (LMM). Regeneration results are from a cox regression model. Non-significant effects are denoted by 'NS' and if main effects are not applicable in a given model it is denoted by 'NA'.</t>
+  </si>
+  <si>
+    <t>Temperature x Time</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">f </t>
+    </r>
+  </si>
+  <si>
+    <t>Injury x Temperature x Time</t>
+  </si>
+  <si>
+    <t>Injury x Time</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>Table 3. Linear mixed-effects model results for daily P:R with Satterthwaite’s approximation for degrees of freedom.</t>
+  </si>
+  <si>
+    <t>0.05, 17.4</t>
+  </si>
+  <si>
+    <t>0.13, 17.8</t>
+  </si>
+  <si>
+    <t>1.34,  216</t>
+  </si>
+  <si>
+    <t>&gt;0.9</t>
+  </si>
+  <si>
+    <t>0.33,38.9</t>
+  </si>
+  <si>
+    <t>0.11,2.70</t>
+  </si>
+  <si>
+    <t>0.08,2.89</t>
+  </si>
+  <si>
+    <t>0.12, 1.55</t>
+  </si>
+  <si>
+    <t>0.09, 1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1. Tissue regeneration results from Cox proportional hazards mixed effects model. Significance is indicated by a hazards ratio (HR) less than 1, confidence interval (CI) not over lapping 1, and a p-value &lt; 0.05. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2. Results from  Kaplan–Meier survival analysis of tissue regeneration with injury and temperature as  predictor variables. Tissue regeneration is the event instead of survival. N.risk is the number of individuals that have not reached the event, n.event is the number of individuals who reached the event at that time step, survival is the proportion of individuals who have not yet reached the event, SE is standard error, and CI is confidence interval. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S1. Polyp regeneration results from Cox proportional hazards mixed effects model. Significance is indicated by a hazards ratio (HR) less than 1, confidence interval (CI) not over lapping 1, and a p-value &lt; 0.05. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S2. Corallite regeneration results from Cox proportional hazards mixed effects model. Significance is indicated by a hazards ratio (HR) less than 1, confidence interval (CI) not over lapping 1, and a p-value &lt; 0.05. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S4. Results from Kaplan–Meier survival analysis of corallite regeneration with injury and temperature as  predictor variables. Corallite regeneration is the event instead of survival. N.risk is the number of individuals that have not reached the event, n.event is the number of individuals who reached the event at that time step, survival is the proportion of individuals who have not yet reached the event, SE is standard error, and CI is confidence interval. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S3. Results from  Kaplan–Meier survival analysis of polyp regeneration with injury and temperature as  predictor variables. Polyp regeneration is the event instead of survival. N.risk is the number of individuals that have not reached the event, n.event is the number of individuals who reached the event at that time step, survival is the proportion of individuals who have not yet reached the event, SE is standard error, and CI is confidence interval. </t>
+  </si>
+  <si>
+    <t>Table S5. Linear mixed-effects model results for calcification  rate (mg cm-2 day-1) with Satterthwaite’s approximation for degrees of freedom.</t>
+  </si>
+  <si>
+    <t>Table S6. Linear mixed-effects model results for buoyant growth  rate (mg cm-2 day-1) with Satterthwaite’s approximation for degrees of freedom.</t>
+  </si>
+  <si>
+    <t>Table 3. Linear mixed-effects model results for net photosynthesis  rate (umol cm-2 hr-1) with Satterthwaite’s approximation for degrees of freedom.</t>
+  </si>
+  <si>
+    <t>Table 4. Linear mixed-effects model results for respiration  rate (umol cm-2 hr-1) with Satterthwaite’s approximation for degrees of freedom.</t>
+  </si>
+  <si>
+    <t>Table S7. Linear mixed-effects model results for gross photosynthesis  rate (umol cm-2 hr-1) with Satterthwaite’s approximation for degrees of freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Effect</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 3. Linear mixed-effects model results for net photosynthesis  rate (umol cm-2 hr-1) with Satterthwaite’s approximation for degrees of freedom. Wound type (W), Temperature, Interval (I) </t>
+  </si>
+  <si>
+    <t>W ╳ T</t>
+  </si>
+  <si>
+    <t>W ╳ I</t>
+  </si>
+  <si>
+    <t>T ╳ I</t>
+  </si>
+  <si>
+    <t>W ╳ T ╳ I</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Light-Enhanced Dark Respiration</t>
+  </si>
+  <si>
+    <t>T╳ I</t>
+  </si>
+  <si>
+    <t>Tissue Regeneration</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Polyp Regeneration</t>
+  </si>
+  <si>
+    <t>Corallite Regeneration</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Calcification Rate</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Bouyant Growth Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 3. Results of four linear mixed effects models for net photosynthesis, respiration, gross photosynthesis,  daily P:R and photosynthetic efficiency at two temperatures (ambient and elevated) and  three injury types (no injury, fragmentation, and abrasion) for three time intervals (1, 10, and 19 days) with Satterthwaite’s approximation for degrees of freedom.  Effects of temperature (T) and Injury (W) were fixed and fully crossed. Time interval (I) is treated as a continuous covariate and was removed from interaction terms if highly insignificant (p&gt;0.5). </t>
+  </si>
+  <si>
+    <t>Table S1. Results for two linear mixed-effects models of calcification and bouyant growth rate at
+two temperatures (ambient and elevated) and three injury types (no injury, fragmentation, and abrasion) with Satterthwaite’s approximation for degrees of freedom. Effects of temperature (T) and Injury (W) were fixed and fully crossed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2. Results from four Kaplan–Meier survival curves for tissue regeneration, polyp regeneration, and corallite regeneration from fragmentation (F) and abrasion (A) injuries at ambient (27 C) and elevated (29 C) temperature. The event in this survival analysis is tissue, polyp, or corallite regeneraiton. N.risk is the number of individuals that have not reached the event, n.event is the number of individuals who reached the event at that time step, survival is the proportion of individuals who have not yet reached the event, SE is standard error, and CI is confidence interval. In any treatment where all individuals have reached the event, an 'NA' in present for SE and 95% CI at that given time interval.		
+							</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1. Results from three Cox proportional hazard models containing mixed effects for tissue regeneration, polyp regeneration, and corallite regeneration from fragmentation (F) and abrasion (A) injuries at ambient (27 C) and elevated (29 C) temperature. The interaction term is absent from the model for corallite regeneration due to rapid healing creating insufficient data and is indicated by NAs. Significance is indicated by a hazards ratio (HR) less than 1, confidence interval (CI) not over lapping 1, and a p-value &lt; 0.05. </t>
+  </si>
+  <si>
+    <t>A╳29</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">f </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +502,95 @@
       <name val="Monaco"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="AptosNarrow-1900000-5b1249"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +600,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -253,11 +637,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,10 +710,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,26 +822,807 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="279">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -384,117 +1691,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -512,6 +1708,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -528,6 +1727,795 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -542,58 +2530,283 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81AF0481-A05E-9B45-8740-73B454A120C1}" name="Table4" displayName="Table4" ref="A3:G6" headerRowCount="0" headerRowDxfId="14" dataDxfId="12" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81AF0481-A05E-9B45-8740-73B454A120C1}" name="Table4" displayName="Table4" ref="A3:G6" headerRowCount="0" headerRowDxfId="278" dataDxfId="277" totalsRowDxfId="276">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{33255A8E-5C84-2943-836D-98C5768051C2}" name="Column1" totalsRowLabel="Total" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{325E05FF-9297-9943-8A70-85758B12110B}" name="Column2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B1EE25E3-CE7F-2E47-9657-D6BA4CB7D67F}" name="Column3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9A70C6B0-202D-A947-887E-CFE07AB1B2C9}" name="Column4" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{484DB78C-3A0C-7144-9D13-42B4AA80305E}" name="Column5" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{E76AA83F-5949-B348-8C46-F28737BEF41B}" name="Column6" headerRowDxfId="51" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{965B57BE-495E-084A-888B-A3940FB3DBA3}" name="Column7" totalsRowFunction="count" headerRowDxfId="50" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{33255A8E-5C84-2943-836D-98C5768051C2}" name="Column1" totalsRowLabel="Total" dataDxfId="275"/>
+    <tableColumn id="2" xr3:uid="{325E05FF-9297-9943-8A70-85758B12110B}" name="Column2" dataDxfId="274"/>
+    <tableColumn id="3" xr3:uid="{B1EE25E3-CE7F-2E47-9657-D6BA4CB7D67F}" name="Column3" dataDxfId="273"/>
+    <tableColumn id="4" xr3:uid="{9A70C6B0-202D-A947-887E-CFE07AB1B2C9}" name="Column4" dataDxfId="272"/>
+    <tableColumn id="5" xr3:uid="{484DB78C-3A0C-7144-9D13-42B4AA80305E}" name="Column5" dataDxfId="271"/>
+    <tableColumn id="6" xr3:uid="{E76AA83F-5949-B348-8C46-F28737BEF41B}" name="Column6" headerRowDxfId="270" dataDxfId="269"/>
+    <tableColumn id="7" xr3:uid="{965B57BE-495E-084A-888B-A3940FB3DBA3}" name="Column7" totalsRowFunction="count" headerRowDxfId="268" dataDxfId="267"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BD32149D-5A52-AD46-8DEF-1D13A73EF97D}" name="Table713" displayName="Table713" ref="A72:H78" headerRowCount="0" totalsRowShown="0" headerRowDxfId="168" dataDxfId="167">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{48E79482-EDE1-E944-997D-D5F693312EA1}" name="Column1" headerRowDxfId="166" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{11C43C17-FCF3-CC40-A4EE-D5170FCA9899}" name="Column2" headerRowDxfId="164" dataDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{498BA12A-B5E1-664D-8AC4-87DEB080C019}" name="Column3" headerRowDxfId="162" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{3A300696-F208-704A-AFBA-466B36DA21BD}" name="Column4" headerRowDxfId="160" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{F532D97C-D8C4-BE4E-AFA2-8946981CF6CD}" name="Column5" headerRowDxfId="158" dataDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{E03AF5D4-9A03-CD4E-885C-EB6D66C4D43C}" name="Column6" headerRowDxfId="156" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{94A431D0-C9A1-454D-9A16-040D04F281D2}" name="Column7" headerRowDxfId="154" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{5828D34B-87A7-0343-B0C0-B1C33886676A}" name="Column8" headerRowDxfId="152" dataDxfId="151"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7BAD0B7B-A8A9-8B4C-ACD0-5BDC87FF1061}" name="Table71014" displayName="Table71014" ref="A85:H95" headerRowCount="0" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2BD6C5F9-7808-624A-AF29-4540084ED622}" name="Column1" headerRowDxfId="148" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{B828F61C-B160-E846-AA7D-B164A5D3766B}" name="Column2" headerRowDxfId="146" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{C6F9BC98-FD55-E540-9F36-670F523FFC51}" name="Column3" headerRowDxfId="144" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{C45F8000-3CD3-C740-807E-930B11C176C5}" name="Column4" headerRowDxfId="142" dataDxfId="141"/>
+    <tableColumn id="5" xr3:uid="{AF96BEEA-49C6-0142-867E-E6E989001190}" name="Column5" headerRowDxfId="140" dataDxfId="139"/>
+    <tableColumn id="6" xr3:uid="{3983EEF4-18D0-8447-922D-EB38C1777BC7}" name="Column6" headerRowDxfId="138" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{2C749684-6EAD-E443-8B78-5852108D5389}" name="Column7" headerRowDxfId="136" dataDxfId="135"/>
+    <tableColumn id="8" xr3:uid="{FF8ECA6D-E753-384E-AC99-61F69752EF6A}" name="Column8" headerRowDxfId="134" dataDxfId="133"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BF34F15B-9DBE-4248-A211-F45383AEF947}" name="Table71316" displayName="Table71316" ref="A102:H108" headerRowCount="0" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0ACCB84E-B1A2-734A-86C2-21C9B829A131}" name="Column1" headerRowDxfId="130" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{70C5851E-D1B5-B248-B5B9-32F6A479CA4D}" name="Column2" headerRowDxfId="128" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{5EB18BDC-4CBA-2D4E-9B18-F8F49AE014A5}" name="Column3" headerRowDxfId="126" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{7FA7FBBE-D1F5-FE4D-ABA8-7D3D8E2FA2BF}" name="Column4" headerRowDxfId="124" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{C789AE3D-833C-6440-9F66-1CA4DA311D51}" name="Column5" headerRowDxfId="122" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{8D5B0AA9-0728-FD48-9D2F-56F8EA265925}" name="Column6" headerRowDxfId="120" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{B168BB6B-70A9-EB45-A6F8-6D5BC55820D0}" name="Column7" headerRowDxfId="118" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{96C27B6A-E543-0A49-A714-220BFA3C903A}" name="Column8" headerRowDxfId="116" dataDxfId="115"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{29C28A79-D9CF-7C41-B913-CA012AB53808}" name="Table17" displayName="Table17" ref="M9:U33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4D4782C5-A9C7-5546-9D0D-C8E627CDEF75}" name="Column1" headerRowDxfId="28" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{74778789-DCC3-2245-B052-4ADCDC300CC8}" name="Column2" headerRowDxfId="29" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{BD51C8B0-97CF-1745-A258-CEDF9F93F38B}" name="Column3" headerRowDxfId="30" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{BCD521A3-6D4E-D443-8F1C-DD8CC0FB0856}" name="Column4" headerRowDxfId="31" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{85F11DD8-4555-3F4A-BAF1-3D76713E65CF}" name="Column5" headerRowDxfId="32" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{2CC49973-D22D-9A48-BD55-0B9EF265C8E4}" name="Column6" headerRowDxfId="33" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{CF4EB3B3-1525-F542-930D-2CE27E67EFF6}" name="Column7" headerRowDxfId="34" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{407C397F-EECE-0A46-913C-F97347D458D3}" name="Column8" headerRowDxfId="35" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{B4AA44BA-D142-0643-BF30-4E989379D0FE}" name="Column9" headerRowDxfId="36" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0289051D-D132-8A42-86CB-FD2A3720AA42}" name="Table3" displayName="Table3" ref="N21:S41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113" tableBorderDxfId="112">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A28E5D95-A9DA-6B4E-ADEF-F9F15426388B}" name="Column1" headerRowDxfId="111" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{6BA9E0BB-C904-FA49-B85F-3595DAA39848}" name="Column2" headerRowDxfId="109" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{A2D62CCF-98FA-9A40-A05C-B4C3935D8931}" name="Column3" headerRowDxfId="107" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{83EECBDC-9C2B-4045-B335-20F7F3DD9C97}" name="Column4" headerRowDxfId="105" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{16974C9C-2012-7E4C-B732-A8D2BECAFC8B}" name="Column5" headerRowDxfId="103" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{F8A1794B-B6E7-554D-BAF7-69B75C110F14}" name="Column6" headerRowDxfId="101" dataDxfId="100"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48726422-6615-5B4B-A763-0B52BC6494A9}" name="Table2" displayName="Table2" ref="C9:G16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1FDDDD30-DA82-BC4A-9B31-44175E371B35}" name="Column1" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{427ADCE8-E2C1-514A-B7F0-490012851CF9}" name="Column2" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{E053844A-7C2A-F34B-A7BF-76A6752ACD6B}" name="Column3" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{F9E20FD1-CC42-EE4C-A156-86FE8A20E508}" name="Column4" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{943C7D14-1726-3F43-8793-97A3177CDAF8}" name="Column5" headerRowDxfId="88" dataDxfId="87"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{25FF951E-5819-0F4D-8ECE-6B4F16F61D5F}" name="Table47" displayName="Table47" ref="B6:H11" headerRowCount="0" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3B0E024F-BBD3-3D42-A276-F08104FFBCF2}" name="Column1" totalsRowLabel="Total" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{E4809532-E0BD-9141-B581-B199CD82771E}" name="Column2" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{A2EB0CC7-5552-944F-97FB-44E011684D08}" name="Column3" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{5FD71FF3-830D-6642-BE06-741326771FE1}" name="Column4" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{CE6CF52F-83A0-104D-8496-469EEAAF4E71}" name="Column5" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{4F256420-D4C3-DE4D-A758-AB44A2B3339D}" name="Column6" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{B469E03A-BB93-2E4C-B18F-241B2CF1353D}" name="Column7" totalsRowFunction="count" headerRowDxfId="76" dataDxfId="75"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F9B3BEAE-1F07-5447-B0C8-9BAC12944408}" name="Table4719" displayName="Table4719" ref="C19:I24" headerRowCount="0" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F124C7D2-3395-3947-BE5C-79669837D31B}" name="Column1" totalsRowLabel="Total" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{F1CEA65E-DD89-AB49-8532-28DDE0FE64ED}" name="Column2" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{ABA1C95E-F97E-654E-8189-D15E96EAC475}" name="Column3" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{B960ED17-B2D1-3D47-A219-DCEF99256616}" name="Column4" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{37EF037F-74BE-6346-ABF2-AF195EC5224B}" name="Column5" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{DDFCD182-722F-2743-BA5F-101FB0539ADE}" name="Column6" headerRowDxfId="66" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{D4D1A3A9-B35A-9545-85B6-21D0371E0ECA}" name="Column7" totalsRowFunction="count" headerRowDxfId="64" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F28E82C9-4F07-D44B-AA48-B12AC2FC9C59}" name="Table471915" displayName="Table471915" ref="C19:I24" headerRowCount="0" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{765EE09E-BBF8-7446-92FC-360268E5ECDA}" name="Column1" totalsRowLabel="Total" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{4DEFF41E-A770-4149-897B-1C68C4415C78}" name="Column2" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{993985E5-F746-314E-A5E7-84716BEF953B}" name="Column3" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{B5F1DC27-8472-E549-A8F2-BBA417C634B2}" name="Column4" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{F61FFA05-C73E-664F-BD3B-81DD78C2BC24}" name="Column5" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{AF17D192-291F-7246-AAAA-C553BFD3B5BF}" name="Column6" headerRowDxfId="54" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{FE8D5A30-5E21-A74F-A39B-FA9167270588}" name="Column7" totalsRowFunction="count" headerRowDxfId="52" dataDxfId="51"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6FC85C2B-3F5C-314A-8F83-3902B37F577F}" name="Table20" displayName="Table20" ref="N8:U41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="50">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2DFBA9D2-6A0D-DE45-9CF7-6D8DD46BF063}" name="Column1" headerRowDxfId="49" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B3DE2AB9-7EA7-0549-8C07-666C2626C98B}" name="Column2" headerRowDxfId="48" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CA34C96C-4F73-914F-AC01-3CEA9929C589}" name="Column3" headerRowDxfId="47" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7C9ECCE0-CCDB-3A4E-82C5-C2C07B028F5E}" name="Column4" headerRowDxfId="46" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2684342C-C4EF-7243-AF44-553E1E6B86C3}" name="Column5" headerRowDxfId="45" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{838D955E-0FBD-0949-ABDC-F4FCC5AADA01}" name="Column6" headerRowDxfId="44" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{7C8C1E72-596F-ED40-915A-6840823877C6}" name="Column7" headerRowDxfId="43" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{FA597E1B-AF79-B146-B8DC-C2012682D431}" name="Column8" headerRowDxfId="42" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58D6B53F-A610-9746-AD56-AF65B7BD5113}" name="Table42" displayName="Table42" ref="J3:P6" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58D6B53F-A610-9746-AD56-AF65B7BD5113}" name="Table42" displayName="Table42" ref="J3:P6" headerRowCount="0" headerRowDxfId="266" dataDxfId="265" totalsRowDxfId="264">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7EAD0D32-FB8F-1A42-B0D7-AA520B353A29}" name="Column1" totalsRowLabel="Total" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FE338F8B-927B-A547-84FB-9407AECC38FF}" name="Column2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E23C446E-F3FC-AA43-AC09-84090A2604EE}" name="Column3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5FEF936B-2069-8747-A808-BFB64CC0079B}" name="Column4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8AB99517-5824-514B-A805-5CCC253135C8}" name="Column5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A82E8B41-E07F-5E4D-ACB8-18DFEAC5595E}" name="Column6" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C3B78A4D-0BF5-E64C-8668-414A98462D97}" name="Column7" totalsRowFunction="count" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7EAD0D32-FB8F-1A42-B0D7-AA520B353A29}" name="Column1" totalsRowLabel="Total" dataDxfId="263"/>
+    <tableColumn id="2" xr3:uid="{FE338F8B-927B-A547-84FB-9407AECC38FF}" name="Column2" dataDxfId="262"/>
+    <tableColumn id="3" xr3:uid="{E23C446E-F3FC-AA43-AC09-84090A2604EE}" name="Column3" dataDxfId="261"/>
+    <tableColumn id="4" xr3:uid="{5FEF936B-2069-8747-A808-BFB64CC0079B}" name="Column4" dataDxfId="260"/>
+    <tableColumn id="5" xr3:uid="{8AB99517-5824-514B-A805-5CCC253135C8}" name="Column5" dataDxfId="259"/>
+    <tableColumn id="6" xr3:uid="{A82E8B41-E07F-5E4D-ACB8-18DFEAC5595E}" name="Column6" headerRowDxfId="258" dataDxfId="257"/>
+    <tableColumn id="7" xr3:uid="{C3B78A4D-0BF5-E64C-8668-414A98462D97}" name="Column7" totalsRowFunction="count" headerRowDxfId="256" dataDxfId="255"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93AF4E05-A948-6248-9E50-90FFE87D16E4}" name="Table5" displayName="Table5" ref="A3:D11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0248BB57-1A87-294A-87C2-32C3BFA72282}" name="Table4217" displayName="Table4217" ref="A11:G14" headerRowCount="0" headerRowDxfId="254" dataDxfId="253" totalsRowDxfId="252">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{579EF221-3B2A-2D44-89EB-8313BE02423C}" name="Column1" totalsRowLabel="Total" dataDxfId="251"/>
+    <tableColumn id="2" xr3:uid="{7B241356-9D17-2142-B6B9-79D521AAD564}" name="Column2" dataDxfId="250"/>
+    <tableColumn id="3" xr3:uid="{37D7BF9E-AC6B-C64D-8A38-D9886105FB4F}" name="Column3" dataDxfId="249"/>
+    <tableColumn id="4" xr3:uid="{24A3D05E-52E3-EC40-8861-E9DF96B1D606}" name="Column4" dataDxfId="248"/>
+    <tableColumn id="5" xr3:uid="{E7C2D8DE-5D74-624B-A6F9-7BD97C22ED6F}" name="Column5" dataDxfId="247"/>
+    <tableColumn id="6" xr3:uid="{223DC940-B895-AC43-83BF-B849E261D9ED}" name="Column6" headerRowDxfId="246" dataDxfId="245"/>
+    <tableColumn id="7" xr3:uid="{D1B519D0-0414-7543-83BC-36E3CD3DCFAC}" name="Column7" totalsRowFunction="count" headerRowDxfId="244" dataDxfId="243"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93AF4E05-A948-6248-9E50-90FFE87D16E4}" name="Table5" displayName="Table5" ref="A4:D12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="242" dataDxfId="241">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E9F51AA7-D073-8842-AAEA-3E675C560129}" name="Column1" headerRowDxfId="47" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{E1B536A6-C12A-1F4F-88BD-4A40B7764A83}" name="Column2" headerRowDxfId="45" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{01429677-F4C2-A04E-AD8E-9B2A1C8FC069}" name="Column3" headerRowDxfId="43" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{9FAEEBD2-C3F6-FF4D-8210-B1567EC96F97}" name="Column4" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{E9F51AA7-D073-8842-AAEA-3E675C560129}" name="Column1" headerRowDxfId="240" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{E1B536A6-C12A-1F4F-88BD-4A40B7764A83}" name="Column2" headerRowDxfId="238" dataDxfId="237"/>
+    <tableColumn id="3" xr3:uid="{01429677-F4C2-A04E-AD8E-9B2A1C8FC069}" name="Column3" headerRowDxfId="236" dataDxfId="235"/>
+    <tableColumn id="4" xr3:uid="{9FAEEBD2-C3F6-FF4D-8210-B1567EC96F97}" name="Column4" headerRowDxfId="234" dataDxfId="233"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B229E61C-5D17-E04C-AAD7-0538FC1E1CBB}" name="Table7" displayName="Table7" ref="A13:H17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{670AA4BD-ED25-5F40-9A28-ABE629708799}" name="Table59" displayName="Table59" ref="A18:D26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="232" dataDxfId="231">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C66EF4B8-F3E7-E54A-9987-12E3BB72826A}" name="Column1" headerRowDxfId="230" dataDxfId="229"/>
+    <tableColumn id="2" xr3:uid="{421350FA-A4C1-F54D-9E68-5FE3E39BA9FC}" name="Column2" headerRowDxfId="228" dataDxfId="227"/>
+    <tableColumn id="3" xr3:uid="{767EB97C-E669-1D45-BEE6-FF2445D764DC}" name="Column3" headerRowDxfId="226" dataDxfId="225"/>
+    <tableColumn id="4" xr3:uid="{DC4D9DB2-FB2C-B74B-BC4C-58F27C775569}" name="Column4" headerRowDxfId="224" dataDxfId="223"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2037FCA9-E3AB-9E49-89FD-E8CA8901FAEE}" name="Table11" displayName="Table11" ref="I8:M23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D3615722-E85B-E346-803E-7A3D98ED6601}" name="Column1" headerRowDxfId="37" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DD66D788-E8D1-A44F-9477-5D2BB37B4BEA}" name="Column2" headerRowDxfId="38" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{EB880961-6E2F-4545-A67F-5FB5E3A8CABF}" name="Column3" headerRowDxfId="39" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0C6DDEBE-CB9B-BC4C-A252-CB6724F4DCC8}" name="Column4" headerRowDxfId="40" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{2A26B920-33E7-3D4A-B28A-73A7F49C4A6D}" name="Column5" headerRowDxfId="41" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B229E61C-5D17-E04C-AAD7-0538FC1E1CBB}" name="Table7" displayName="Table7" ref="A13:H19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="222" dataDxfId="221">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B259276D-2C2D-1C49-8F13-64D1B163B997}" name="Column1" headerRowDxfId="37" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{17CACC45-7F8E-EE46-AF9C-BFE550449A24}" name="Column2" headerRowDxfId="35" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{B74A4B39-2B31-4E4E-A37A-13D6F27FEFD1}" name="Column3" headerRowDxfId="33" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{D8AA16A0-12AC-314C-A50A-BDD887211A02}" name="Column4" headerRowDxfId="31" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{52B38E0E-8669-4044-B348-7FAE1EC2DA5B}" name="Column5" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{F7830F20-03A0-EB4C-8B36-81B91D310B24}" name="Column6" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{734F0F47-8809-D642-95E4-BF64653462DB}" name="Column7" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{D1C992E3-C36A-A343-B913-EDA8CA03A4BD}" name="Column8" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{B259276D-2C2D-1C49-8F13-64D1B163B997}" name="Column1" headerRowDxfId="220" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{17CACC45-7F8E-EE46-AF9C-BFE550449A24}" name="Column2" headerRowDxfId="218" dataDxfId="217"/>
+    <tableColumn id="3" xr3:uid="{B74A4B39-2B31-4E4E-A37A-13D6F27FEFD1}" name="Column3" headerRowDxfId="216" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{D8AA16A0-12AC-314C-A50A-BDD887211A02}" name="Column4" headerRowDxfId="214" dataDxfId="213"/>
+    <tableColumn id="5" xr3:uid="{52B38E0E-8669-4044-B348-7FAE1EC2DA5B}" name="Column5" headerRowDxfId="212" dataDxfId="211"/>
+    <tableColumn id="6" xr3:uid="{F7830F20-03A0-EB4C-8B36-81B91D310B24}" name="Column6" headerRowDxfId="210" dataDxfId="209"/>
+    <tableColumn id="7" xr3:uid="{734F0F47-8809-D642-95E4-BF64653462DB}" name="Column7" headerRowDxfId="208" dataDxfId="207"/>
+    <tableColumn id="8" xr3:uid="{D1C992E3-C36A-A343-B913-EDA8CA03A4BD}" name="Column8" headerRowDxfId="206" dataDxfId="205"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BC5B370D-44A3-3A47-93F2-BA50251260AB}" name="Table710" displayName="Table710" ref="A26:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="204" dataDxfId="203">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E5DA61F5-6E86-CE48-B976-925725A1F7CE}" name="Column1" headerRowDxfId="202" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{5779444B-3305-E94D-B070-FE9CE869E25A}" name="Column2" headerRowDxfId="200" dataDxfId="199"/>
+    <tableColumn id="3" xr3:uid="{E9B6080F-D9E4-F64F-A652-043984516354}" name="Column3" headerRowDxfId="198" dataDxfId="197"/>
+    <tableColumn id="4" xr3:uid="{5B36B12D-77BA-9547-984A-B998185E2E32}" name="Column4" headerRowDxfId="196" dataDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{8203F745-1FD1-E041-98B8-7C70C3329090}" name="Column5" headerRowDxfId="194" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{5F97121D-E2E3-0440-9A59-666CE7B7E154}" name="Column6" headerRowDxfId="192" dataDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{83471BCB-0A92-D44D-B462-09EB81924199}" name="Column7" headerRowDxfId="190" dataDxfId="189"/>
+    <tableColumn id="8" xr3:uid="{125DC15A-65CF-C243-B082-7F2C68E71B81}" name="Column8" headerRowDxfId="188" dataDxfId="187"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F44DBFD6-B71B-BB4A-8F4E-86D1E905A8BC}" name="Table71011" displayName="Table71011" ref="A43:H51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4B63142F-6B1C-0D4A-BCA7-1889FC813FF4}" name="Column1" headerRowDxfId="184" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{8ADC01B3-81FB-F245-BAE4-4A1889EC345A}" name="Column2" headerRowDxfId="182" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{2873C527-B441-F54E-A9C8-D545C0D0DFB1}" name="Column3" headerRowDxfId="180" dataDxfId="179"/>
+    <tableColumn id="4" xr3:uid="{A88FD39A-C6C2-8A4F-9AA4-9909A6343319}" name="Column4" headerRowDxfId="178" dataDxfId="177"/>
+    <tableColumn id="5" xr3:uid="{4DFD8961-3F35-CB49-9204-9122CF29A676}" name="Column5" headerRowDxfId="176" dataDxfId="175"/>
+    <tableColumn id="6" xr3:uid="{015CDC4F-5CB7-4F46-B702-638C4B10DFAF}" name="Column6" headerRowDxfId="174" dataDxfId="173"/>
+    <tableColumn id="7" xr3:uid="{C2AFEBFE-58CD-4D4B-9C85-10840F712B54}" name="Column7" headerRowDxfId="172" dataDxfId="171"/>
+    <tableColumn id="8" xr3:uid="{26F12EE0-0CFB-7744-BCC1-A77B5444E594}" name="Column8" headerRowDxfId="170" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,10 +3129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D800AA2-E88D-FD4D-9EBF-26442803644E}">
-  <dimension ref="A1:P6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -927,90 +3143,90 @@
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="7" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="J1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="15" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="J1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +3270,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1098,9 +3314,9 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7">
         <v>0.94299999999999995</v>
@@ -1121,7 +3337,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7">
         <v>0.44900000000000001</v>
@@ -1142,26 +3358,350 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="J9" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+    </row>
+    <row r="10" spans="1:17" ht="16" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+    </row>
+    <row r="11" spans="1:17" ht="16" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>62.146000000000001</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>62.15</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>62.444000000000003</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="58">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M14" s="58">
+        <v>0.112</v>
+      </c>
+      <c r="N14" s="58">
+        <v>2</v>
+      </c>
+      <c r="O14" s="58">
+        <v>62.183</v>
+      </c>
+      <c r="P14" s="58">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="Q14" s="58">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="59"/>
+      <c r="K15" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="58">
+        <v>0.187</v>
+      </c>
+      <c r="M15" s="58">
+        <v>0.187</v>
+      </c>
+      <c r="N15" s="58">
+        <v>1</v>
+      </c>
+      <c r="O15" s="58">
+        <v>62.183999999999997</v>
+      </c>
+      <c r="P15" s="58">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="Q15" s="58">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="59"/>
+      <c r="K16" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="58">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="M16" s="58">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N16" s="58">
+        <v>2</v>
+      </c>
+      <c r="O16" s="58">
+        <v>62.460999999999999</v>
+      </c>
+      <c r="P16" s="58">
+        <v>2.77</v>
+      </c>
+      <c r="Q16" s="58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="70">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M17" s="70">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N17" s="70">
+        <v>2</v>
+      </c>
+      <c r="O17" s="70">
+        <v>62.146000000000001</v>
+      </c>
+      <c r="P17" s="70">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="Q17" s="70">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="69"/>
+      <c r="K18" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="70">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M18" s="70">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N18" s="70">
+        <v>1</v>
+      </c>
+      <c r="O18" s="70">
+        <v>62.15</v>
+      </c>
+      <c r="P18" s="70">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Q18" s="70">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="71"/>
+      <c r="K19" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="61">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M19" s="61">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N19" s="61">
+        <v>2</v>
+      </c>
+      <c r="O19" s="61">
+        <v>62.444000000000003</v>
+      </c>
+      <c r="P19" s="61">
+        <v>3.08</v>
+      </c>
+      <c r="Q19" s="61">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="J1:P2"/>
+    <mergeCell ref="A9:G10"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J9:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="2">
+  <pageSetup scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7729ED-7DD7-5D4B-B30C-9910E4C89CB4}">
-  <dimension ref="A1:D11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1170,143 +3710,645 @@
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:13" ht="16" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="I1" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="1"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B7" s="2">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="I8" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="I9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="64">
+        <v>17</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="65">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64">
+        <v>27</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64">
+        <v>29</v>
+      </c>
+      <c r="K12" s="64">
+        <v>1.55</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="64">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="I13" s="64"/>
+      <c r="J13" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="64">
+        <v>0.92</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="I14" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="64">
+        <v>0.47</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="64">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64">
+        <v>27</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="64"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64">
+        <v>29</v>
+      </c>
+      <c r="K17" s="64">
+        <v>0.54</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="64">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="64">
+        <v>3.6</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="64">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="I19" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="67"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="66">
+        <v>0.33</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64">
+        <v>27</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="66"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64">
+        <v>29</v>
+      </c>
+      <c r="K22" s="66">
+        <v>0.43</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="17" t="s">
+      <c r="D23" s="2"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="B24" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.7</v>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" customHeight="1">
+      <c r="A29" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="36">
+        <v>0.33</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="39">
+        <v>0.43</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="A29:D31"/>
+    <mergeCell ref="I1:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <pageSetup scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C209DBC-DE80-5242-B17D-A86C53E74DA2}">
-  <dimension ref="A1:H17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M2" sqref="M2:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1315,207 +4357,5189 @@
     <col min="2" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:21">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:21">
       <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="M2" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+    </row>
+    <row r="3" spans="1:21" ht="16" customHeight="1">
       <c r="B3" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+    </row>
+    <row r="4" spans="1:21" ht="16" customHeight="1">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+    </row>
+    <row r="5" spans="1:21" ht="16" customHeight="1">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+    </row>
+    <row r="8" spans="1:21" ht="16" customHeight="1">
       <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="M9" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="M10" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+    </row>
+    <row r="11" spans="1:21" ht="16" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="58">
         <v>27</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="O11" s="58">
+        <v>19</v>
+      </c>
+      <c r="P11" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="58">
+        <v>1</v>
+      </c>
+      <c r="R11" s="58">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="S11" s="58">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="T11" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="U11" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="58">
+        <v>29</v>
+      </c>
+      <c r="O12" s="58">
+        <v>19</v>
+      </c>
+      <c r="P12" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="58">
+        <v>2</v>
+      </c>
+      <c r="R12" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="T12" s="58">
+        <v>0.188</v>
+      </c>
+      <c r="U12" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="M13" s="56"/>
+      <c r="N13" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="58">
+        <v>27</v>
+      </c>
+      <c r="O14" s="58">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7"/>
+      <c r="P14" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="58">
+        <v>1</v>
+      </c>
+      <c r="R14" s="58">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="S14" s="58">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="T14" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="U14" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="58">
+        <v>27</v>
+      </c>
+      <c r="O15" s="58">
+        <v>19</v>
+      </c>
+      <c r="P15" s="58">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="58">
+        <v>2</v>
+      </c>
+      <c r="R15" s="58">
+        <v>0</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.2165</v>
+      </c>
+      <c r="G16" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="56"/>
+      <c r="N16" s="58">
+        <v>29</v>
+      </c>
+      <c r="O16" s="58">
+        <v>10</v>
+      </c>
+      <c r="P16" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="58">
+        <v>3</v>
+      </c>
+      <c r="R16" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="S16" s="58">
+        <v>0.217</v>
+      </c>
+      <c r="T16" s="58">
+        <v>4.58E-2</v>
+      </c>
+      <c r="U16" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="58">
+        <v>29</v>
+      </c>
+      <c r="O17" s="58">
+        <v>19</v>
+      </c>
+      <c r="P17" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="58">
+        <v>1</v>
+      </c>
+      <c r="R17" s="58">
+        <v>0</v>
+      </c>
+      <c r="S17" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8">
+      <c r="E18" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.2722</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8">
         <v>19</v>
       </c>
-      <c r="C17" s="8">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="8">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.312</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.877</v>
-      </c>
+      <c r="D19" s="8">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.188</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="56"/>
+      <c r="N19" s="58">
+        <v>27</v>
+      </c>
+      <c r="O19" s="58">
+        <v>10</v>
+      </c>
+      <c r="P19" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="58">
+        <v>1</v>
+      </c>
+      <c r="R19" s="58">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="S19" s="58">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="T19" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="U19" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="M20" s="56"/>
+      <c r="N20" s="58">
+        <v>27</v>
+      </c>
+      <c r="O20" s="58">
+        <v>19</v>
+      </c>
+      <c r="P20" s="58">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="58">
+        <v>2</v>
+      </c>
+      <c r="R20" s="58">
+        <v>0</v>
+      </c>
+      <c r="S20" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="M21" s="56"/>
+      <c r="N21" s="58">
+        <v>29</v>
+      </c>
+      <c r="O21" s="58">
+        <v>10</v>
+      </c>
+      <c r="P21" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="58">
+        <v>1</v>
+      </c>
+      <c r="R21" s="58">
+        <v>0.75</v>
+      </c>
+      <c r="S21" s="58">
+        <v>0.217</v>
+      </c>
+      <c r="T21" s="58">
+        <v>0.4259</v>
+      </c>
+      <c r="U21" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="58">
+        <v>29</v>
+      </c>
+      <c r="O22" s="58">
+        <v>19</v>
+      </c>
+      <c r="P22" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="58">
+        <v>2</v>
+      </c>
+      <c r="R22" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="S22" s="58">
+        <v>0.217</v>
+      </c>
+      <c r="T22" s="58">
+        <v>4.58E-2</v>
+      </c>
+      <c r="U22" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="58">
+        <v>27</v>
+      </c>
+      <c r="O24" s="58">
+        <v>10</v>
+      </c>
+      <c r="P24" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="58">
+        <v>1</v>
+      </c>
+      <c r="R24" s="58">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="S24" s="58">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="T24" s="58">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="U24" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="58">
+        <v>27</v>
+      </c>
+      <c r="O25" s="58">
+        <v>19</v>
+      </c>
+      <c r="P25" s="58">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="58">
+        <v>1</v>
+      </c>
+      <c r="R25" s="58">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S25" s="58">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="T25" s="58">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="U25" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="56"/>
+      <c r="N26" s="58">
+        <v>29</v>
+      </c>
+      <c r="O26" s="58">
+        <v>10</v>
+      </c>
+      <c r="P26" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="58">
+        <v>1</v>
+      </c>
+      <c r="R26" s="58">
+        <v>0.75</v>
+      </c>
+      <c r="S26" s="58">
+        <v>0.217</v>
+      </c>
+      <c r="T26" s="58">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="U26" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="58">
+        <v>29</v>
+      </c>
+      <c r="O27" s="58">
+        <v>19</v>
+      </c>
+      <c r="P27" s="58">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="58">
+        <v>3</v>
+      </c>
+      <c r="R27" s="58">
+        <v>0</v>
+      </c>
+      <c r="S27" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="7">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="M28" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="56"/>
+      <c r="N29" s="58">
+        <v>27</v>
+      </c>
+      <c r="O29" s="7">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>3</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="7">
+        <v>10</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.4259</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="56"/>
+      <c r="N30" s="58">
+        <v>29</v>
+      </c>
+      <c r="O30" s="7">
+        <v>10</v>
+      </c>
+      <c r="P30" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>3</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0.2165</v>
+      </c>
+      <c r="T30" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="U30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G31" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="M31" s="56"/>
+      <c r="N31" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="58">
+        <v>27</v>
+      </c>
+      <c r="O32" s="7">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>2</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0.2722</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="U32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="62"/>
+      <c r="N33" s="61">
+        <v>29</v>
+      </c>
+      <c r="O33" s="8">
+        <v>19</v>
+      </c>
+      <c r="P33" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>2</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0.188</v>
+      </c>
+      <c r="U33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G34" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="56"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="M35" s="56"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8">
+        <v>19</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
+        <v>3</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="7">
+        <v>19</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="7">
+        <v>19</v>
+      </c>
+      <c r="C46" s="7">
+        <v>4</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="7">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7">
+        <v>19</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="7">
+        <v>10</v>
+      </c>
+      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G50" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8">
+        <v>19</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="7">
+        <v>10</v>
+      </c>
+      <c r="C74" s="7">
+        <v>3</v>
+      </c>
+      <c r="D74" s="7">
+        <v>3</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="7">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7">
+        <v>4</v>
+      </c>
+      <c r="D75" s="7">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.2165</v>
+      </c>
+      <c r="G75" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="H75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="7">
+        <v>10</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.2722</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="8">
+        <v>19</v>
+      </c>
+      <c r="C78" s="8">
+        <v>4</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G78" s="8">
+        <v>0.188</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="7">
+        <v>10</v>
+      </c>
+      <c r="C87" s="7">
+        <v>3</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7">
+        <v>19</v>
+      </c>
+      <c r="C88" s="7">
+        <v>2</v>
+      </c>
+      <c r="D88" s="7">
+        <v>2</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="7">
+        <v>10</v>
+      </c>
+      <c r="C89" s="7">
+        <v>4</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0.4259</v>
+      </c>
+      <c r="H89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7">
+        <v>19</v>
+      </c>
+      <c r="C90" s="7">
+        <v>3</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G90" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="H90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="7">
+        <v>10</v>
+      </c>
+      <c r="C92" s="7">
+        <v>3</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7">
+        <v>19</v>
+      </c>
+      <c r="C93" s="7">
+        <v>2</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G93" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="7">
+        <v>10</v>
+      </c>
+      <c r="C94" s="7">
+        <v>4</v>
+      </c>
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8">
+        <v>19</v>
+      </c>
+      <c r="C95" s="8">
+        <v>3</v>
+      </c>
+      <c r="D95" s="8">
+        <v>3</v>
+      </c>
+      <c r="E95" s="8">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="7">
+        <v>10</v>
+      </c>
+      <c r="C104" s="7">
+        <v>3</v>
+      </c>
+      <c r="D104" s="7">
+        <v>3</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="7">
+        <v>10</v>
+      </c>
+      <c r="C105" s="7">
+        <v>4</v>
+      </c>
+      <c r="D105" s="7">
+        <v>3</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0.2165</v>
+      </c>
+      <c r="G105" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="H105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="7">
+        <v>10</v>
+      </c>
+      <c r="C107" s="7">
+        <v>3</v>
+      </c>
+      <c r="D107" s="7">
+        <v>2</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0.2722</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="8">
+        <v>19</v>
+      </c>
+      <c r="C108" s="8">
+        <v>4</v>
+      </c>
+      <c r="D108" s="8">
+        <v>2</v>
+      </c>
+      <c r="E108" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F108" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G108" s="8">
+        <v>0.188</v>
+      </c>
+      <c r="H108" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:H84"/>
+    <mergeCell ref="A98:H101"/>
+    <mergeCell ref="A9:H12"/>
+    <mergeCell ref="A22:H25"/>
+    <mergeCell ref="A39:H42"/>
+    <mergeCell ref="A68:H71"/>
+    <mergeCell ref="M2:U8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="7">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0838-DBF6-D748-98D7-9545D778A035}">
+  <dimension ref="C6:T42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:15">
+      <c r="C6" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="3:15" ht="16" customHeight="1">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="3:15" ht="17">
+      <c r="C9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="17">
+      <c r="C10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="85">
+      <c r="C11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="51">
+      <c r="C12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="51">
+      <c r="C13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="51">
+      <c r="C14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="3:15" ht="34">
+      <c r="C15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="3:15" ht="51">
+      <c r="C16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="13:20">
+      <c r="O17" s="12"/>
+    </row>
+    <row r="19" spans="13:20">
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" spans="13:20">
+      <c r="M20" s="13"/>
+      <c r="T20" s="13"/>
+    </row>
+    <row r="21" spans="13:20" ht="17">
+      <c r="M21" s="13"/>
+      <c r="N21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" spans="13:20" ht="34">
+      <c r="M22" s="13"/>
+      <c r="N22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="13:20" ht="75" customHeight="1">
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="13"/>
+    </row>
+    <row r="24" spans="13:20" ht="95" customHeight="1">
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25" spans="13:20" ht="85">
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" spans="13:20" ht="17">
+      <c r="M26" s="13"/>
+      <c r="N26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="13:20" ht="109" customHeight="1">
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="13:20" ht="115" customHeight="1">
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="13:20" ht="102">
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="13:20" ht="17">
+      <c r="M30" s="13"/>
+      <c r="N30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="13:20" ht="92" customHeight="1">
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="13"/>
+    </row>
+    <row r="32" spans="13:20" ht="85">
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="13"/>
+    </row>
+    <row r="33" spans="13:20" ht="17">
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34" spans="13:20" ht="17">
+      <c r="M34" s="13"/>
+      <c r="N34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="13"/>
+    </row>
+    <row r="35" spans="13:20" ht="17">
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="13"/>
+    </row>
+    <row r="36" spans="13:20" ht="34">
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T36" s="13"/>
+    </row>
+    <row r="37" spans="13:20" ht="102">
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T37" s="13"/>
+    </row>
+    <row r="38" spans="13:20" ht="34">
+      <c r="M38" s="13"/>
+      <c r="N38" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39" spans="13:20" ht="17">
+      <c r="N39" s="13"/>
+      <c r="O39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="13:20" ht="34">
+      <c r="N40" s="13"/>
+      <c r="O40" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="13:20" ht="34">
+      <c r="N41" s="13"/>
+      <c r="O41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="13:20">
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:H12"/>
+    <mergeCell ref="C6:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381779BC-CEEE-BF45-9912-7084937EB930}">
+  <dimension ref="B4:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8">
+      <c r="B4" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>61.34</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>140</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>61.37</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7">
+        <v>11.14</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0838-DBF6-D748-98D7-9545D778A035}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CC2623-EC7F-C14B-8BD3-52B7DE49B402}">
+  <dimension ref="C5:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" ht="16" customHeight="1">
+      <c r="C5" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="25">
+        <v>2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>190.18</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.4083</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>190.17</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="25">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>136</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2.14</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>190.14</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
+        <v>136</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>136</v>
+      </c>
+      <c r="H13" s="25">
+        <v>5.69</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>136</v>
+      </c>
+      <c r="H14" s="26">
+        <v>3.44</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>61.34</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>140</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>61.37</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>140</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11.14</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:I6"/>
+    <mergeCell ref="C17:I18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881BCDC1-F6DC-1348-991A-2DD02F096304}">
+  <dimension ref="C8:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:9">
+      <c r="C8" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>153.56</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>153.57</v>
+      </c>
+      <c r="H12" s="25">
+        <v>3.88</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>136</v>
+      </c>
+      <c r="H13" s="25">
+        <v>4.37</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F14" s="25">
+        <v>2</v>
+      </c>
+      <c r="G14" s="25">
+        <v>153.4</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25">
+        <v>136</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25">
+        <v>136</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="26">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>136</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224BEBB3-1D88-6B49-9864-CBF2A3E1B5C7}">
+  <dimension ref="C6:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:9">
+      <c r="C6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25">
+        <v>177.87</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>177.83</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>207</v>
+      </c>
+      <c r="H11" s="25">
+        <v>16.77</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
+        <v>177.91</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E13" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>207</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.189</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.189</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>207</v>
+      </c>
+      <c r="H14" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="26">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E15" s="26">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="32">
+        <v>207</v>
+      </c>
+      <c r="H15" s="26">
+        <v>2.12</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D6AFD4-0FE6-5340-9504-0488F8C1ACAF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:U42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:U41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:21" ht="16" customHeight="1">
+      <c r="N1" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+    </row>
+    <row r="2" spans="3:21">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+    </row>
+    <row r="3" spans="3:21">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+    </row>
+    <row r="5" spans="3:21">
+      <c r="C5" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+    </row>
+    <row r="8" spans="3:21">
+      <c r="C8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="25">
+        <v>2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>190.18</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.4083</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>190.17</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="N9" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="75">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q9" s="75">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R9" s="75">
+        <v>2</v>
+      </c>
+      <c r="S9" s="75">
+        <v>190.18</v>
+      </c>
+      <c r="T9" s="75">
+        <v>0.4083</v>
+      </c>
+      <c r="U9" s="75">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="25">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>136</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2.14</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q10" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R10" s="75">
+        <v>1</v>
+      </c>
+      <c r="S10" s="75">
+        <v>190.17</v>
+      </c>
+      <c r="T10" s="75">
+        <v>0.43</v>
+      </c>
+      <c r="U10" s="75">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21">
+      <c r="C11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>190.14</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="75">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q11" s="75">
+        <v>2.3E-2</v>
+      </c>
+      <c r="R11" s="75">
+        <v>1</v>
+      </c>
+      <c r="S11" s="75">
+        <v>136</v>
+      </c>
+      <c r="T11" s="75">
+        <v>2.14</v>
+      </c>
+      <c r="U11" s="75">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="C12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
+        <v>136</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.86</v>
+      </c>
+      <c r="N12" s="74"/>
+      <c r="O12" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="75">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" s="75">
+        <v>0.01</v>
+      </c>
+      <c r="R12" s="75">
+        <v>2</v>
+      </c>
+      <c r="S12" s="75">
+        <v>190.14</v>
+      </c>
+      <c r="T12" s="75">
+        <v>0.91</v>
+      </c>
+      <c r="U12" s="75">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>136</v>
+      </c>
+      <c r="H13" s="25">
+        <v>5.69</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q13" s="75">
+        <v>2E-3</v>
+      </c>
+      <c r="R13" s="75">
+        <v>2</v>
+      </c>
+      <c r="S13" s="75">
+        <v>136</v>
+      </c>
+      <c r="T13" s="75">
+        <v>0.15</v>
+      </c>
+      <c r="U13" s="75">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>136</v>
+      </c>
+      <c r="H14" s="26">
+        <v>3.44</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="N14" s="74"/>
+      <c r="O14" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="75">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q14" s="75">
+        <v>6.2E-2</v>
+      </c>
+      <c r="R14" s="75">
+        <v>1</v>
+      </c>
+      <c r="S14" s="75">
+        <v>136</v>
+      </c>
+      <c r="T14" s="75">
+        <v>5.69</v>
+      </c>
+      <c r="U14" s="75">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21">
+      <c r="N15" s="74"/>
+      <c r="O15" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="75">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q15" s="75">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R15" s="75">
+        <v>2</v>
+      </c>
+      <c r="S15" s="75">
+        <v>136</v>
+      </c>
+      <c r="T15" s="75">
+        <v>3.44</v>
+      </c>
+      <c r="U15" s="76">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21">
+      <c r="N16" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q16" s="58">
+        <v>2E-3</v>
+      </c>
+      <c r="R16" s="58">
+        <v>2</v>
+      </c>
+      <c r="S16" s="58">
+        <v>61.34</v>
+      </c>
+      <c r="T16" s="58">
+        <v>0.71</v>
+      </c>
+      <c r="U16" s="58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="58">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q17" s="58">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R17" s="58">
+        <v>1</v>
+      </c>
+      <c r="S17" s="58">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="T17" s="58">
+        <v>6.75</v>
+      </c>
+      <c r="U17" s="58">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="58">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q18" s="58">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R18" s="58">
+        <v>1</v>
+      </c>
+      <c r="S18" s="58">
+        <v>140</v>
+      </c>
+      <c r="T18" s="58">
+        <v>1.98</v>
+      </c>
+      <c r="U18" s="58">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21">
+      <c r="C19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="74"/>
+      <c r="O19" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q19" s="58">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R19" s="58">
+        <v>2</v>
+      </c>
+      <c r="S19" s="58">
+        <v>61.37</v>
+      </c>
+      <c r="T19" s="58">
+        <v>0.81</v>
+      </c>
+      <c r="U19" s="58">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21">
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>61.34</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="74"/>
+      <c r="O20" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="58">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="Q20" s="58">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R20" s="58">
+        <v>1</v>
+      </c>
+      <c r="S20" s="58">
+        <v>140</v>
+      </c>
+      <c r="T20" s="58">
+        <v>11.14</v>
+      </c>
+      <c r="U20" s="77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="N21" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="75">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q21" s="75">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R21" s="75">
+        <v>2</v>
+      </c>
+      <c r="S21" s="75">
+        <v>153.56</v>
+      </c>
+      <c r="T21" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="U21" s="75">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>140</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="75">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q22" s="75">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R22" s="75">
+        <v>1</v>
+      </c>
+      <c r="S22" s="75">
+        <v>153.57</v>
+      </c>
+      <c r="T22" s="75">
+        <v>3.88</v>
+      </c>
+      <c r="U22" s="75">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21">
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>61.37</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="N23" s="74"/>
+      <c r="O23" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="75">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q23" s="75">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R23" s="75">
+        <v>1</v>
+      </c>
+      <c r="S23" s="75">
+        <v>136</v>
+      </c>
+      <c r="T23" s="75">
+        <v>4.37</v>
+      </c>
+      <c r="U23" s="76">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>140</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11.14</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="74"/>
+      <c r="O24" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24" s="75">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q24" s="75">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R24" s="75">
+        <v>2</v>
+      </c>
+      <c r="S24" s="75">
+        <v>153.4</v>
+      </c>
+      <c r="T24" s="75">
+        <v>0.88</v>
+      </c>
+      <c r="U24" s="75">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="N25" s="74"/>
+      <c r="O25" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" s="75">
+        <v>0.01</v>
+      </c>
+      <c r="Q25" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R25" s="75">
+        <v>2</v>
+      </c>
+      <c r="S25" s="75">
+        <v>136</v>
+      </c>
+      <c r="T25" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="U25" s="75">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q26" s="75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R26" s="75">
+        <v>1</v>
+      </c>
+      <c r="S26" s="75">
+        <v>136</v>
+      </c>
+      <c r="T26" s="75">
+        <v>0.27</v>
+      </c>
+      <c r="U26" s="75">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" s="75">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q27" s="75">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R27" s="75">
+        <v>2</v>
+      </c>
+      <c r="S27" s="75">
+        <v>136</v>
+      </c>
+      <c r="T27" s="75">
+        <v>1.9</v>
+      </c>
+      <c r="U27" s="75">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" ht="17">
+      <c r="C28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="75">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q28" s="75">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R28" s="75">
+        <v>2</v>
+      </c>
+      <c r="S28" s="75">
+        <v>177.87</v>
+      </c>
+      <c r="T28" s="75">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U28" s="75">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" ht="17" customHeight="1">
+      <c r="C29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="25">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F29" s="25">
+        <v>2</v>
+      </c>
+      <c r="G29" s="25">
+        <v>153.56</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="N29" s="78"/>
+      <c r="O29" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P29" s="75">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q29" s="75">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R29" s="75">
+        <v>1</v>
+      </c>
+      <c r="S29" s="75">
+        <v>177.83</v>
+      </c>
+      <c r="T29" s="75">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U29" s="75">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21">
+      <c r="C30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E30" s="25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F30" s="25">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25">
+        <v>153.57</v>
+      </c>
+      <c r="H30" s="25">
+        <v>3.88</v>
+      </c>
+      <c r="I30" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="N30" s="78"/>
+      <c r="O30" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" s="75">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Q30" s="75">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="R30" s="75">
+        <v>1</v>
+      </c>
+      <c r="S30" s="75">
+        <v>207</v>
+      </c>
+      <c r="T30" s="75">
+        <v>16.77</v>
+      </c>
+      <c r="U30" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21">
+      <c r="C31" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E31" s="25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F31" s="25">
+        <v>1</v>
+      </c>
+      <c r="G31" s="25">
+        <v>136</v>
+      </c>
+      <c r="H31" s="25">
+        <v>4.37</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0.04</v>
+      </c>
+      <c r="N31" s="78"/>
+      <c r="O31" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" s="75">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q31" s="75">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R31" s="75">
+        <v>2</v>
+      </c>
+      <c r="S31" s="75">
+        <v>177.91</v>
+      </c>
+      <c r="T31" s="75">
+        <v>0.26</v>
+      </c>
+      <c r="U31" s="75">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21">
+      <c r="C32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E32" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F32" s="25">
+        <v>2</v>
+      </c>
+      <c r="G32" s="25">
+        <v>153.4</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="I32" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="N32" s="78"/>
+      <c r="O32" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="P32" s="75">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q32" s="75">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R32" s="75">
+        <v>2</v>
+      </c>
+      <c r="S32" s="75">
+        <v>207</v>
+      </c>
+      <c r="T32" s="75">
+        <v>0.18</v>
+      </c>
+      <c r="U32" s="75">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21">
+      <c r="C33" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="E33" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F33" s="25">
+        <v>2</v>
+      </c>
+      <c r="G33" s="25">
+        <v>136</v>
+      </c>
+      <c r="H33" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I33" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="N33" s="78"/>
+      <c r="O33" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" s="75">
+        <v>0.189</v>
+      </c>
+      <c r="Q33" s="75">
+        <v>0.189</v>
+      </c>
+      <c r="R33" s="75">
+        <v>1</v>
+      </c>
+      <c r="S33" s="75">
+        <v>207</v>
+      </c>
+      <c r="T33" s="75">
+        <v>8.6</v>
+      </c>
+      <c r="U33" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21">
+      <c r="C34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E34" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="25">
+        <v>136</v>
+      </c>
+      <c r="H34" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="I34" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="N34" s="78"/>
+      <c r="O34" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" s="75">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Q34" s="75">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="R34" s="75">
+        <v>2</v>
+      </c>
+      <c r="S34" s="75">
+        <v>207</v>
+      </c>
+      <c r="T34" s="75">
+        <v>2.12</v>
+      </c>
+      <c r="U34" s="75">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" ht="17">
+      <c r="C35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="26">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E35" s="26">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F35" s="26">
+        <v>2</v>
+      </c>
+      <c r="G35" s="26">
+        <v>136</v>
+      </c>
+      <c r="H35" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="I35" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="N35" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="75">
+        <v>255.42</v>
+      </c>
+      <c r="Q35" s="75">
+        <v>127.71</v>
+      </c>
+      <c r="R35" s="75">
+        <v>2</v>
+      </c>
+      <c r="S35" s="75">
+        <v>81.37</v>
+      </c>
+      <c r="T35" s="79">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="U35" s="80">
+        <v>0.51680000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21">
+      <c r="N36" s="81"/>
+      <c r="O36" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" s="75">
+        <v>502.01</v>
+      </c>
+      <c r="Q36" s="75">
+        <v>502.01</v>
+      </c>
+      <c r="R36" s="75">
+        <v>1</v>
+      </c>
+      <c r="S36" s="75">
+        <v>81.37</v>
+      </c>
+      <c r="T36" s="79">
+        <v>2.6158000000000001</v>
+      </c>
+      <c r="U36" s="80">
+        <v>0.10968</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="N37" s="81"/>
+      <c r="O37" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" s="75">
+        <v>905.91</v>
+      </c>
+      <c r="Q37" s="75">
+        <v>905.91</v>
+      </c>
+      <c r="R37" s="75">
+        <v>1</v>
+      </c>
+      <c r="S37" s="75">
+        <v>65</v>
+      </c>
+      <c r="T37" s="79">
+        <v>4.7203999999999997</v>
+      </c>
+      <c r="U37" s="80">
+        <v>3.3459999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21">
+      <c r="N38" s="81"/>
+      <c r="O38" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="P38" s="75">
+        <v>117.58</v>
+      </c>
+      <c r="Q38" s="75">
+        <v>58.79</v>
+      </c>
+      <c r="R38" s="75">
+        <v>2</v>
+      </c>
+      <c r="S38" s="75">
+        <v>81.41</v>
+      </c>
+      <c r="T38" s="79">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="U38" s="80">
+        <v>0.73699000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21">
+      <c r="N39" s="81"/>
+      <c r="O39" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" s="75">
+        <v>212.69</v>
+      </c>
+      <c r="Q39" s="75">
+        <v>106.34</v>
+      </c>
+      <c r="R39" s="75">
+        <v>2</v>
+      </c>
+      <c r="S39" s="75">
+        <v>65</v>
+      </c>
+      <c r="T39" s="79">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="U39" s="80">
+        <v>0.57726999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="N40" s="81"/>
+      <c r="O40" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="P40" s="75">
+        <v>1257.1099999999999</v>
+      </c>
+      <c r="Q40" s="75">
+        <v>1257.1099999999999</v>
+      </c>
+      <c r="R40" s="75">
+        <v>1</v>
+      </c>
+      <c r="S40" s="75">
+        <v>65</v>
+      </c>
+      <c r="T40" s="79">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="U40" s="82">
+        <v>1.282E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="N41" s="81"/>
+      <c r="O41" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P41" s="75">
+        <v>273.02</v>
+      </c>
+      <c r="Q41" s="75">
+        <v>136.51</v>
+      </c>
+      <c r="R41" s="75">
+        <v>2</v>
+      </c>
+      <c r="S41" s="75">
+        <v>65</v>
+      </c>
+      <c r="T41" s="79">
+        <v>0.71130000000000004</v>
+      </c>
+      <c r="U41" s="80">
+        <v>0.49478</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21">
+      <c r="N42" s="41"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N1:U7"/>
+    <mergeCell ref="C5:I6"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="C26:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="35" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Growth/Output/Tables.xlsx
+++ b/Growth/Output/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahmunk/Desktop/Projects/Acropora_Regeneration-main/Growth/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FE173C-DCBA-B048-80FE-2186A5AEFBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C8C04-7066-6140-B8E3-F03EE438C8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27220" windowHeight="16300" activeTab="3" xr2:uid="{93EC686E-7E07-024F-8313-03B2053EB837}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{93EC686E-7E07-024F-8313-03B2053EB837}"/>
   </bookViews>
   <sheets>
     <sheet name="growth.tables" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -892,6 +892,49 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -939,49 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3975,7 +3975,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:Q19"/>
+      <selection activeCell="J9" sqref="J9:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3987,40 +3987,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="63" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="J1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
@@ -4199,42 +4199,42 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="J9" s="67" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="J9" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
     </row>
     <row r="10" spans="1:17" ht="16" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
     </row>
     <row r="11" spans="1:17" ht="16" customHeight="1">
       <c r="A11" s="10" t="s">
@@ -4258,14 +4258,14 @@
       <c r="G11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
@@ -4289,14 +4289,14 @@
       <c r="G12" s="7">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7" t="s">
@@ -4367,7 +4367,7 @@
       <c r="G14" s="7">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="80" t="s">
         <v>112</v>
       </c>
       <c r="K14" s="44" t="s">
@@ -4393,7 +4393,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="J15" s="65"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="44" t="s">
         <v>96</v>
       </c>
@@ -4417,7 +4417,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="J16" s="65"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="42" t="s">
         <v>99</v>
       </c>
@@ -4441,7 +4441,7 @@
       </c>
     </row>
     <row r="17" spans="10:17">
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="80" t="s">
         <v>130</v>
       </c>
       <c r="K17" s="44" t="s">
@@ -4467,7 +4467,7 @@
       </c>
     </row>
     <row r="18" spans="10:17">
-      <c r="J18" s="65"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="44" t="s">
         <v>96</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
     </row>
     <row r="19" spans="10:17">
-      <c r="J19" s="66"/>
+      <c r="J19" s="81"/>
       <c r="K19" s="48" t="s">
         <v>99</v>
       </c>
@@ -4537,7 +4537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557F2858-C4B9-7240-AE06-75EC26517FCF}">
   <dimension ref="H6:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:O65"/>
     </sheetView>
   </sheetViews>
@@ -4547,76 +4547,76 @@
   </cols>
   <sheetData>
     <row r="6" spans="8:15">
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
     </row>
     <row r="7" spans="8:15">
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
     </row>
     <row r="8" spans="8:15">
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
     </row>
     <row r="9" spans="8:15">
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
     </row>
     <row r="10" spans="8:15">
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
     </row>
     <row r="11" spans="8:15">
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
     </row>
     <row r="12" spans="8:15">
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
     </row>
     <row r="13" spans="8:15">
       <c r="H13" s="47" t="s">
@@ -4645,7 +4645,7 @@
       </c>
     </row>
     <row r="14" spans="8:15">
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="63" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="55"/>
@@ -4953,7 +4953,7 @@
       </c>
     </row>
     <row r="27" spans="8:15">
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="63" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="44"/>
@@ -5084,7 +5084,7 @@
       <c r="N32" s="55">
         <v>12.084</v>
       </c>
-      <c r="O32" s="83">
+      <c r="O32" s="67">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
     </row>
     <row r="39" spans="8:15">
-      <c r="H39" s="80"/>
+      <c r="H39" s="64"/>
       <c r="I39" s="44" t="s">
         <v>99</v>
       </c>
@@ -5261,7 +5261,7 @@
       </c>
     </row>
     <row r="40" spans="8:15">
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="63" t="s">
         <v>36</v>
       </c>
       <c r="I40" s="55"/>
@@ -5437,7 +5437,7 @@
       <c r="O50" s="60"/>
     </row>
     <row r="51" spans="8:15">
-      <c r="H51" s="80"/>
+      <c r="H51" s="64"/>
       <c r="I51" s="55" t="s">
         <v>96</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="O52" s="60"/>
     </row>
     <row r="53" spans="8:15" ht="17">
-      <c r="H53" s="80" t="s">
+      <c r="H53" s="64" t="s">
         <v>56</v>
       </c>
       <c r="I53" s="55"/>
@@ -5546,7 +5546,7 @@
       <c r="L59" s="55"/>
       <c r="M59" s="55"/>
       <c r="N59" s="55"/>
-      <c r="O59" s="81"/>
+      <c r="O59" s="65"/>
     </row>
     <row r="60" spans="8:15">
       <c r="H60" s="42" t="s">
@@ -5560,7 +5560,7 @@
       <c r="L60" s="55"/>
       <c r="M60" s="55"/>
       <c r="N60" s="55"/>
-      <c r="O60" s="81"/>
+      <c r="O60" s="65"/>
     </row>
     <row r="61" spans="8:15">
       <c r="H61" s="42"/>
@@ -5572,7 +5572,7 @@
       <c r="L61" s="55"/>
       <c r="M61" s="55"/>
       <c r="N61" s="55"/>
-      <c r="O61" s="81"/>
+      <c r="O61" s="65"/>
     </row>
     <row r="62" spans="8:15">
       <c r="H62" s="42"/>
@@ -5584,7 +5584,7 @@
       <c r="L62" s="55"/>
       <c r="M62" s="55"/>
       <c r="N62" s="55"/>
-      <c r="O62" s="81"/>
+      <c r="O62" s="65"/>
     </row>
     <row r="63" spans="8:15">
       <c r="H63" s="42" t="s">
@@ -5598,7 +5598,7 @@
       <c r="L63" s="55"/>
       <c r="M63" s="55"/>
       <c r="N63" s="55"/>
-      <c r="O63" s="81"/>
+      <c r="O63" s="65"/>
     </row>
     <row r="64" spans="8:15">
       <c r="H64" s="61"/>
@@ -5610,7 +5610,7 @@
       <c r="L64" s="55"/>
       <c r="M64" s="55"/>
       <c r="N64" s="55"/>
-      <c r="O64" s="81"/>
+      <c r="O64" s="65"/>
     </row>
     <row r="65" spans="8:15">
       <c r="H65" s="61"/>
@@ -5622,7 +5622,7 @@
       <c r="L65" s="55"/>
       <c r="M65" s="55"/>
       <c r="N65" s="55"/>
-      <c r="O65" s="81"/>
+      <c r="O65" s="65"/>
     </row>
     <row r="66" spans="8:15">
       <c r="H66" s="61"/>
@@ -5632,7 +5632,7 @@
       <c r="L66" s="55"/>
       <c r="M66" s="55"/>
       <c r="N66" s="55"/>
-      <c r="O66" s="81"/>
+      <c r="O66" s="65"/>
     </row>
     <row r="67" spans="8:15">
       <c r="H67" s="61"/>
@@ -5642,7 +5642,7 @@
       <c r="L67" s="55"/>
       <c r="M67" s="55"/>
       <c r="N67" s="55"/>
-      <c r="O67" s="81"/>
+      <c r="O67" s="65"/>
     </row>
     <row r="68" spans="8:15">
       <c r="H68" s="61"/>
@@ -5652,7 +5652,7 @@
       <c r="L68" s="55"/>
       <c r="M68" s="55"/>
       <c r="N68" s="55"/>
-      <c r="O68" s="81"/>
+      <c r="O68" s="65"/>
     </row>
     <row r="69" spans="8:15">
       <c r="H69" s="61"/>
@@ -5662,7 +5662,7 @@
       <c r="L69" s="55"/>
       <c r="M69" s="55"/>
       <c r="N69" s="55"/>
-      <c r="O69" s="81"/>
+      <c r="O69" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5683,7 +5683,7 @@
   </sheetPr>
   <dimension ref="D5:K68"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:K11"/>
     </sheetView>
   </sheetViews>
@@ -5697,76 +5697,76 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:11">
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
     </row>
     <row r="11" spans="4:11">
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="4:11">
       <c r="D12" s="47" t="s">
@@ -5795,7 +5795,7 @@
       </c>
     </row>
     <row r="13" spans="4:11">
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="63" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="55"/>
@@ -5813,13 +5813,13 @@
       <c r="E14" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="66">
         <v>2.3473000000000001E-2</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="66">
         <v>1.1736999999999999E-2</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="75">
         <v>2</v>
       </c>
       <c r="I14" s="59">
@@ -5837,13 +5837,13 @@
       <c r="E15" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="66">
         <v>2.2866000000000001E-2</v>
       </c>
-      <c r="G15" s="82">
+      <c r="G15" s="66">
         <v>2.2866000000000001E-2</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="75">
         <v>1</v>
       </c>
       <c r="I15" s="59">
@@ -5861,13 +5861,13 @@
       <c r="E16" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="66">
         <v>2.1946E-2</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="66">
         <v>1.0973E-2</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="75">
         <v>2</v>
       </c>
       <c r="I16" s="59">
@@ -5887,13 +5887,13 @@
       <c r="E17" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="66">
         <v>8.3476999999999996E-3</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="66">
         <v>4.1739000000000004E-3</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="76">
         <v>2</v>
       </c>
       <c r="I17" s="59">
@@ -5911,13 +5911,13 @@
       <c r="E18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="66">
         <v>1.5220000000000001E-4</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="66">
         <v>1.5220000000000001E-4</v>
       </c>
-      <c r="H18" s="91">
+      <c r="H18" s="75">
         <v>1</v>
       </c>
       <c r="I18" s="59">
@@ -5935,13 +5935,13 @@
       <c r="E19" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="66">
         <v>8.7086000000000004E-3</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="66">
         <v>4.3543000000000002E-3</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="75">
         <v>2</v>
       </c>
       <c r="I19" s="59">
@@ -5961,13 +5961,13 @@
       <c r="E20" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="66">
         <v>1.7772E-2</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="66">
         <v>8.8859999999999998E-3</v>
       </c>
-      <c r="H20" s="91">
+      <c r="H20" s="75">
         <v>2</v>
       </c>
       <c r="I20" s="59">
@@ -5985,13 +5985,13 @@
       <c r="E21" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="66">
         <v>0.230213</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="66">
         <v>0.230213</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="75">
         <v>1</v>
       </c>
       <c r="I21" s="59">
@@ -6000,7 +6000,7 @@
       <c r="J21" s="59">
         <v>20.9847</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="67" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6009,13 +6009,13 @@
       <c r="E22" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="66">
         <v>2.65E-3</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="66">
         <v>1.325E-3</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="75">
         <v>2</v>
       </c>
       <c r="I22" s="59">
@@ -6035,22 +6035,22 @@
       <c r="E23" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="70">
         <v>1.9227999999999999E-2</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="70">
         <v>9.6139999999999993E-3</v>
       </c>
-      <c r="H23" s="91">
-        <v>2</v>
-      </c>
-      <c r="I23" s="89">
+      <c r="H23" s="75">
+        <v>2</v>
+      </c>
+      <c r="I23" s="73">
         <v>60.938000000000002</v>
       </c>
-      <c r="J23" s="89">
+      <c r="J23" s="73">
         <v>0.98319999999999996</v>
       </c>
-      <c r="K23" s="89">
+      <c r="K23" s="73">
         <v>0.37997399999999998</v>
       </c>
     </row>
@@ -6059,22 +6059,22 @@
       <c r="E24" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="86">
+      <c r="F24" s="70">
         <v>0.111959</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G24" s="70">
         <v>0.111959</v>
       </c>
-      <c r="H24" s="91">
-        <v>1</v>
-      </c>
-      <c r="I24" s="89">
+      <c r="H24" s="75">
+        <v>1</v>
+      </c>
+      <c r="I24" s="73">
         <v>60.914000000000001</v>
       </c>
-      <c r="J24" s="89">
+      <c r="J24" s="73">
         <v>11.4496</v>
       </c>
-      <c r="K24" s="88">
+      <c r="K24" s="72">
         <v>1.255E-3</v>
       </c>
     </row>
@@ -6083,36 +6083,36 @@
       <c r="E25" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="70">
         <v>0.13087799999999999</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G25" s="70">
         <v>6.5438999999999997E-2</v>
       </c>
-      <c r="H25" s="91">
-        <v>2</v>
-      </c>
-      <c r="I25" s="89">
+      <c r="H25" s="75">
+        <v>2</v>
+      </c>
+      <c r="I25" s="73">
         <v>61.021000000000001</v>
       </c>
-      <c r="J25" s="89">
+      <c r="J25" s="73">
         <v>6.6921999999999997</v>
       </c>
-      <c r="K25" s="88">
+      <c r="K25" s="72">
         <v>2.3570000000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="4:11">
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="63" t="s">
         <v>104</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="4:11" ht="17">
       <c r="D27" s="61" t="s">
@@ -6121,13 +6121,13 @@
       <c r="E27" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="66">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="66">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="75">
         <v>2</v>
       </c>
       <c r="I27" s="59">
@@ -6136,7 +6136,7 @@
       <c r="J27" s="59">
         <v>0.1113</v>
       </c>
-      <c r="K27" s="89">
+      <c r="K27" s="73">
         <v>0.89480000000000004</v>
       </c>
     </row>
@@ -6145,13 +6145,13 @@
       <c r="E28" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="66">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G28" s="82">
+      <c r="G28" s="66">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H28" s="91">
+      <c r="H28" s="75">
         <v>1</v>
       </c>
       <c r="I28" s="59">
@@ -6160,7 +6160,7 @@
       <c r="J28" s="59">
         <v>0.13389999999999999</v>
       </c>
-      <c r="K28" s="89">
+      <c r="K28" s="73">
         <v>0.7157</v>
       </c>
     </row>
@@ -6169,13 +6169,13 @@
       <c r="E29" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="66">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G29" s="66">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="H29" s="91">
+      <c r="H29" s="75">
         <v>2</v>
       </c>
       <c r="I29" s="59">
@@ -6184,7 +6184,7 @@
       <c r="J29" s="59">
         <v>1.0548</v>
       </c>
-      <c r="K29" s="89">
+      <c r="K29" s="73">
         <v>0.35449999999999998</v>
       </c>
     </row>
@@ -6195,22 +6195,22 @@
       <c r="E30" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="86">
+      <c r="F30" s="70">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G30" s="86">
+      <c r="G30" s="70">
         <v>1.8E-3</v>
       </c>
-      <c r="H30" s="92">
-        <v>2</v>
-      </c>
-      <c r="I30" s="89">
+      <c r="H30" s="76">
+        <v>2</v>
+      </c>
+      <c r="I30" s="73">
         <v>61.530999999999999</v>
       </c>
-      <c r="J30" s="89">
+      <c r="J30" s="73">
         <v>0.66510000000000002</v>
       </c>
-      <c r="K30" s="89">
+      <c r="K30" s="73">
         <v>0.51790000000000003</v>
       </c>
     </row>
@@ -6219,13 +6219,13 @@
       <c r="E31" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="66">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="66">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H31" s="91">
+      <c r="H31" s="75">
         <v>1</v>
       </c>
       <c r="I31" s="59">
@@ -6234,7 +6234,7 @@
       <c r="J31" s="59">
         <v>12.084</v>
       </c>
-      <c r="K31" s="87" t="s">
+      <c r="K31" s="71" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6243,13 +6243,13 @@
       <c r="E32" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="66">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="66">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="H32" s="91">
+      <c r="H32" s="75">
         <v>2</v>
       </c>
       <c r="I32" s="59">
@@ -6269,13 +6269,13 @@
       <c r="E33" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="66">
         <v>1.45548E-2</v>
       </c>
-      <c r="G33" s="82">
+      <c r="G33" s="66">
         <v>7.2773999999999998E-3</v>
       </c>
-      <c r="H33" s="91">
+      <c r="H33" s="75">
         <v>2</v>
       </c>
       <c r="I33" s="59">
@@ -6293,13 +6293,13 @@
       <c r="E34" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="66">
         <v>7.7629999999999995E-4</v>
       </c>
-      <c r="G34" s="82">
+      <c r="G34" s="66">
         <v>7.7629999999999995E-4</v>
       </c>
-      <c r="H34" s="91">
+      <c r="H34" s="75">
         <v>1</v>
       </c>
       <c r="I34" s="59">
@@ -6317,13 +6317,13 @@
       <c r="E35" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="66">
         <v>7.4022000000000003E-3</v>
       </c>
-      <c r="G35" s="82">
+      <c r="G35" s="66">
         <v>3.7011000000000001E-3</v>
       </c>
-      <c r="H35" s="91">
+      <c r="H35" s="75">
         <v>2</v>
       </c>
       <c r="I35" s="59">
@@ -6343,13 +6343,13 @@
       <c r="E36" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="82">
+      <c r="F36" s="66">
         <v>1.45548E-2</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="66">
         <v>7.2773999999999998E-3</v>
       </c>
-      <c r="H36" s="91">
+      <c r="H36" s="75">
         <v>2</v>
       </c>
       <c r="I36" s="59">
@@ -6367,13 +6367,13 @@
       <c r="E37" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="66">
         <v>7.7629999999999995E-4</v>
       </c>
-      <c r="G37" s="82">
+      <c r="G37" s="66">
         <v>7.7629999999999995E-4</v>
       </c>
-      <c r="H37" s="91">
+      <c r="H37" s="75">
         <v>1</v>
       </c>
       <c r="I37" s="59">
@@ -6387,17 +6387,17 @@
       </c>
     </row>
     <row r="38" spans="4:11">
-      <c r="D38" s="80"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="66">
         <v>7.4022000000000003E-3</v>
       </c>
-      <c r="G38" s="82">
+      <c r="G38" s="66">
         <v>3.7011000000000001E-3</v>
       </c>
-      <c r="H38" s="91">
+      <c r="H38" s="75">
         <v>2</v>
       </c>
       <c r="I38" s="59">
@@ -6411,13 +6411,13 @@
       </c>
     </row>
     <row r="39" spans="4:11">
-      <c r="D39" s="79" t="s">
+      <c r="D39" s="63" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="55"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="91"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="59"/>
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
@@ -6429,13 +6429,13 @@
       <c r="E40" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="82">
+      <c r="F40" s="66">
         <v>3.3536000000000003E-2</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G40" s="66">
         <v>1.6768000000000002E-2</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H40" s="75">
         <v>2</v>
       </c>
       <c r="I40" s="59">
@@ -6453,13 +6453,13 @@
       <c r="E41" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="66">
         <v>3.0291999999999999E-2</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G41" s="66">
         <v>3.0291999999999999E-2</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="75">
         <v>1</v>
       </c>
       <c r="I41" s="59">
@@ -6477,13 +6477,13 @@
       <c r="E42" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="82">
+      <c r="F42" s="66">
         <v>5.4202E-2</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G42" s="66">
         <v>2.7101E-2</v>
       </c>
-      <c r="H42" s="91">
+      <c r="H42" s="75">
         <v>2</v>
       </c>
       <c r="I42" s="59">
@@ -6497,16 +6497,16 @@
       </c>
     </row>
     <row r="43" spans="4:11" ht="17">
-      <c r="D43" s="80" t="s">
+      <c r="D43" s="64" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="55"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="91"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="75"/>
       <c r="I43" s="59"/>
       <c r="J43" s="59"/>
-      <c r="K43" s="89"/>
+      <c r="K43" s="73"/>
     </row>
     <row r="44" spans="4:11" ht="17">
       <c r="D44" s="61" t="s">
@@ -6515,13 +6515,13 @@
       <c r="E44" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="82">
+      <c r="F44" s="66">
         <v>2.3921000000000001E-2</v>
       </c>
-      <c r="G44" s="82">
+      <c r="G44" s="66">
         <v>1.19604E-2</v>
       </c>
-      <c r="H44" s="91">
+      <c r="H44" s="75">
         <v>2</v>
       </c>
       <c r="I44" s="59">
@@ -6530,7 +6530,7 @@
       <c r="J44" s="59">
         <v>0.97050000000000003</v>
       </c>
-      <c r="K44" s="89">
+      <c r="K44" s="73">
         <v>0.3846</v>
       </c>
     </row>
@@ -6539,13 +6539,13 @@
       <c r="E45" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="82">
+      <c r="F45" s="66">
         <v>2.8018999999999999E-2</v>
       </c>
-      <c r="G45" s="82">
+      <c r="G45" s="66">
         <v>2.8018700000000001E-2</v>
       </c>
-      <c r="H45" s="91">
+      <c r="H45" s="75">
         <v>1</v>
       </c>
       <c r="I45" s="59">
@@ -6554,7 +6554,7 @@
       <c r="J45" s="59">
         <v>2.2734999999999999</v>
       </c>
-      <c r="K45" s="89">
+      <c r="K45" s="73">
         <v>0.13669999999999999</v>
       </c>
     </row>
@@ -6563,13 +6563,13 @@
       <c r="E46" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="82">
+      <c r="F46" s="66">
         <v>1.4961E-2</v>
       </c>
-      <c r="G46" s="82">
+      <c r="G46" s="66">
         <v>7.4806999999999998E-3</v>
       </c>
-      <c r="H46" s="91">
+      <c r="H46" s="75">
         <v>2</v>
       </c>
       <c r="I46" s="59">
@@ -6578,7 +6578,7 @@
       <c r="J46" s="59">
         <v>0.60699999999999998</v>
       </c>
-      <c r="K46" s="89">
+      <c r="K46" s="73">
         <v>0.54820000000000002</v>
       </c>
     </row>
@@ -6589,13 +6589,13 @@
       <c r="E47" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="82">
+      <c r="F47" s="66">
         <v>5.2700999999999998E-3</v>
       </c>
-      <c r="G47" s="82">
+      <c r="G47" s="66">
         <v>2.6351E-3</v>
       </c>
-      <c r="H47" s="92">
+      <c r="H47" s="76">
         <v>2</v>
       </c>
       <c r="I47" s="59">
@@ -6604,7 +6604,7 @@
       <c r="J47" s="59">
         <v>0.14330000000000001</v>
       </c>
-      <c r="K47" s="89">
+      <c r="K47" s="73">
         <v>0.86670000000000003</v>
       </c>
     </row>
@@ -6613,13 +6613,13 @@
       <c r="E48" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="82">
+      <c r="F48" s="66">
         <v>2.79014E-2</v>
       </c>
-      <c r="G48" s="82">
+      <c r="G48" s="66">
         <v>2.79014E-2</v>
       </c>
-      <c r="H48" s="91">
+      <c r="H48" s="75">
         <v>1</v>
       </c>
       <c r="I48" s="59">
@@ -6628,7 +6628,7 @@
       <c r="J48" s="59">
         <v>1.5178</v>
       </c>
-      <c r="K48" s="89">
+      <c r="K48" s="73">
         <v>0.22259999999999999</v>
       </c>
     </row>
@@ -6637,13 +6637,13 @@
       <c r="E49" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="82">
+      <c r="F49" s="66">
         <v>1.2933E-3</v>
       </c>
-      <c r="G49" s="82">
+      <c r="G49" s="66">
         <v>6.4670000000000005E-4</v>
       </c>
-      <c r="H49" s="91">
+      <c r="H49" s="75">
         <v>2</v>
       </c>
       <c r="I49" s="59">
@@ -6652,7 +6652,7 @@
       <c r="J49" s="59">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="K49" s="89">
+      <c r="K49" s="73">
         <v>0.96550000000000002</v>
       </c>
     </row>
@@ -6663,13 +6663,13 @@
       <c r="E50" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="82">
+      <c r="F50" s="66">
         <v>2.9399999999999999E-3</v>
       </c>
-      <c r="G50" s="82">
+      <c r="G50" s="66">
         <v>1.47E-3</v>
       </c>
-      <c r="H50" s="91">
+      <c r="H50" s="75">
         <v>2</v>
       </c>
       <c r="I50" s="59">
@@ -6678,7 +6678,7 @@
       <c r="J50" s="59">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="K50" s="89">
+      <c r="K50" s="73">
         <v>0.92904089999999995</v>
       </c>
     </row>
@@ -6687,13 +6687,13 @@
       <c r="E51" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="82">
+      <c r="F51" s="66">
         <v>0.3301</v>
       </c>
-      <c r="G51" s="82">
+      <c r="G51" s="66">
         <v>0.3301</v>
       </c>
-      <c r="H51" s="91">
+      <c r="H51" s="75">
         <v>1</v>
       </c>
       <c r="I51" s="59">
@@ -6702,7 +6702,7 @@
       <c r="J51" s="59">
         <v>16.560199999999998</v>
       </c>
-      <c r="K51" s="88" t="s">
+      <c r="K51" s="72" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6711,13 +6711,13 @@
       <c r="E52" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="82">
+      <c r="F52" s="66">
         <v>2.97E-3</v>
       </c>
-      <c r="G52" s="82">
+      <c r="G52" s="66">
         <v>1.48E-3</v>
       </c>
-      <c r="H52" s="91">
+      <c r="H52" s="75">
         <v>2</v>
       </c>
       <c r="I52" s="59">
@@ -6726,7 +6726,7 @@
       <c r="J52" s="59">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="K52" s="89">
+      <c r="K52" s="73">
         <v>0.92838410000000005</v>
       </c>
     </row>
@@ -6737,13 +6737,13 @@
       <c r="E53" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="82">
+      <c r="F53" s="66">
         <v>1.2383999999999999E-2</v>
       </c>
-      <c r="G53" s="82">
+      <c r="G53" s="66">
         <v>6.1919999999999996E-3</v>
       </c>
-      <c r="H53" s="91">
+      <c r="H53" s="75">
         <v>2</v>
       </c>
       <c r="I53" s="59">
@@ -6752,7 +6752,7 @@
       <c r="J53" s="59">
         <v>0.53749999999999998</v>
       </c>
-      <c r="K53" s="89">
+      <c r="K53" s="73">
         <v>0.58695090000000005</v>
       </c>
     </row>
@@ -6761,13 +6761,13 @@
       <c r="E54" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="82">
+      <c r="F54" s="66">
         <v>0.17271600000000001</v>
       </c>
-      <c r="G54" s="82">
+      <c r="G54" s="66">
         <v>0.17271600000000001</v>
       </c>
-      <c r="H54" s="91">
+      <c r="H54" s="75">
         <v>1</v>
       </c>
       <c r="I54" s="59">
@@ -6776,7 +6776,7 @@
       <c r="J54" s="59">
         <v>14.991400000000001</v>
       </c>
-      <c r="K54" s="88" t="s">
+      <c r="K54" s="72" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6785,13 +6785,13 @@
       <c r="E55" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="82">
+      <c r="F55" s="66">
         <v>0.15382499999999999</v>
       </c>
-      <c r="G55" s="82">
+      <c r="G55" s="66">
         <v>7.6911999999999994E-2</v>
       </c>
-      <c r="H55" s="91">
+      <c r="H55" s="75">
         <v>2</v>
       </c>
       <c r="I55" s="59">
@@ -6800,21 +6800,21 @@
       <c r="J55" s="59">
         <v>6.6757999999999997</v>
       </c>
-      <c r="K55" s="88">
+      <c r="K55" s="72">
         <v>2.3776000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="4:11" ht="17">
-      <c r="D56" s="84" t="s">
+      <c r="D56" s="68" t="s">
         <v>58</v>
       </c>
       <c r="E56" s="55"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="91"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="75"/>
       <c r="I56" s="59"/>
       <c r="J56" s="59"/>
-      <c r="K56" s="90"/>
+      <c r="K56" s="74"/>
     </row>
     <row r="57" spans="4:11" ht="17">
       <c r="D57" s="61" t="s">
@@ -6823,13 +6823,13 @@
       <c r="E57" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="82">
+      <c r="F57" s="66">
         <v>90.97</v>
       </c>
-      <c r="G57" s="82">
+      <c r="G57" s="66">
         <v>45.48</v>
       </c>
-      <c r="H57" s="91">
+      <c r="H57" s="75">
         <v>2</v>
       </c>
       <c r="I57" s="59">
@@ -6838,7 +6838,7 @@
       <c r="J57" s="59">
         <v>0.53239999999999998</v>
       </c>
-      <c r="K57" s="89">
+      <c r="K57" s="73">
         <v>0.59030000000000005</v>
       </c>
     </row>
@@ -6847,13 +6847,13 @@
       <c r="E58" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="82">
+      <c r="F58" s="66">
         <v>444.12</v>
       </c>
-      <c r="G58" s="82">
+      <c r="G58" s="66">
         <v>444.12</v>
       </c>
-      <c r="H58" s="91">
+      <c r="H58" s="75">
         <v>1</v>
       </c>
       <c r="I58" s="59">
@@ -6862,7 +6862,7 @@
       <c r="J58" s="59">
         <v>5.1984000000000004</v>
       </c>
-      <c r="K58" s="90">
+      <c r="K58" s="74">
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
@@ -6871,13 +6871,13 @@
       <c r="E59" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F59" s="82">
+      <c r="F59" s="66">
         <v>134</v>
       </c>
-      <c r="G59" s="82">
+      <c r="G59" s="66">
         <v>67</v>
       </c>
-      <c r="H59" s="91">
+      <c r="H59" s="75">
         <v>2</v>
       </c>
       <c r="I59" s="59">
@@ -6886,7 +6886,7 @@
       <c r="J59" s="59">
         <v>0.78420000000000001</v>
       </c>
-      <c r="K59" s="89">
+      <c r="K59" s="73">
         <v>0.46160000000000001</v>
       </c>
     </row>
@@ -6897,13 +6897,13 @@
       <c r="E60" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="82">
+      <c r="F60" s="66">
         <v>285.67</v>
       </c>
-      <c r="G60" s="82">
+      <c r="G60" s="66">
         <v>142.834</v>
       </c>
-      <c r="H60" s="92">
+      <c r="H60" s="76">
         <v>2</v>
       </c>
       <c r="I60" s="59">
@@ -6912,7 +6912,7 @@
       <c r="J60" s="59">
         <v>0.5696</v>
       </c>
-      <c r="K60" s="89">
+      <c r="K60" s="73">
         <v>0.56869999999999998</v>
       </c>
     </row>
@@ -6921,13 +6921,13 @@
       <c r="E61" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="82">
+      <c r="F61" s="66">
         <v>0.5</v>
       </c>
-      <c r="G61" s="82">
+      <c r="G61" s="66">
         <v>0.497</v>
       </c>
-      <c r="H61" s="91">
+      <c r="H61" s="75">
         <v>1</v>
       </c>
       <c r="I61" s="59">
@@ -6936,7 +6936,7 @@
       <c r="J61" s="59">
         <v>2E-3</v>
       </c>
-      <c r="K61" s="89">
+      <c r="K61" s="73">
         <v>0.9647</v>
       </c>
     </row>
@@ -6945,13 +6945,13 @@
       <c r="E62" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="82">
+      <c r="F62" s="66">
         <v>452.02</v>
       </c>
-      <c r="G62" s="82">
+      <c r="G62" s="66">
         <v>226.00899999999999</v>
       </c>
-      <c r="H62" s="91">
+      <c r="H62" s="75">
         <v>2</v>
       </c>
       <c r="I62" s="59">
@@ -6960,7 +6960,7 @@
       <c r="J62" s="59">
         <v>0.9012</v>
       </c>
-      <c r="K62" s="89">
+      <c r="K62" s="73">
         <v>0.4113</v>
       </c>
     </row>
@@ -6971,13 +6971,13 @@
       <c r="E63" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="82">
+      <c r="F63" s="66">
         <v>35.549999999999997</v>
       </c>
-      <c r="G63" s="82">
+      <c r="G63" s="66">
         <v>17.77</v>
       </c>
-      <c r="H63" s="91">
+      <c r="H63" s="75">
         <v>2</v>
       </c>
       <c r="I63" s="59">
@@ -6986,7 +6986,7 @@
       <c r="J63" s="59">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="K63" s="89">
+      <c r="K63" s="73">
         <v>0.91552540000000004</v>
       </c>
     </row>
@@ -6995,13 +6995,13 @@
       <c r="E64" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F64" s="82">
+      <c r="F64" s="66">
         <v>35.549999999999997</v>
       </c>
-      <c r="G64" s="82">
+      <c r="G64" s="66">
         <v>2701.15</v>
       </c>
-      <c r="H64" s="91">
+      <c r="H64" s="75">
         <v>1</v>
       </c>
       <c r="I64" s="59">
@@ -7010,7 +7010,7 @@
       <c r="J64" s="59">
         <v>13.4329</v>
       </c>
-      <c r="K64" s="85" t="s">
+      <c r="K64" s="69" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7019,13 +7019,13 @@
       <c r="E65" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F65" s="82">
+      <c r="F65" s="66">
         <v>1307.07</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="66">
         <v>653.53</v>
       </c>
-      <c r="H65" s="91">
+      <c r="H65" s="75">
         <v>2</v>
       </c>
       <c r="I65" s="59">
@@ -7034,7 +7034,7 @@
       <c r="J65" s="59">
         <v>3.2501000000000002</v>
       </c>
-      <c r="K65" s="88">
+      <c r="K65" s="72">
         <v>4.5490700000000002E-2</v>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
       <c r="J66" s="55"/>
-      <c r="K66" s="81"/>
+      <c r="K66" s="65"/>
     </row>
     <row r="67" spans="4:11">
       <c r="D67" s="61"/>
@@ -7056,7 +7056,7 @@
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
       <c r="J67" s="55"/>
-      <c r="K67" s="81"/>
+      <c r="K67" s="65"/>
     </row>
     <row r="68" spans="4:11">
       <c r="D68" s="61"/>
@@ -7066,7 +7066,7 @@
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
       <c r="J68" s="55"/>
-      <c r="K68" s="81"/>
+      <c r="K68" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7087,8 +7087,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7105,41 +7105,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="I1" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -7154,11 +7154,11 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="33" t="s">
@@ -7167,11 +7167,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
@@ -7184,11 +7184,11 @@
         <v>17</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
@@ -7203,11 +7203,11 @@
       <c r="D7" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="33" t="s">
@@ -7361,12 +7361,12 @@
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
         <v>110</v>
@@ -7382,10 +7382,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42">
         <v>27</v>
@@ -7399,10 +7399,10 @@
       <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42">
         <v>29</v>
@@ -7607,26 +7607,26 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="34" t="s">
@@ -7735,7 +7735,7 @@
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:U8"/>
+      <selection activeCell="M2" sqref="M2:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7760,97 +7760,97 @@
     </row>
     <row r="2" spans="1:21">
       <c r="B2" s="6"/>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
     </row>
     <row r="3" spans="1:21" ht="16" customHeight="1">
       <c r="B3" s="6"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
     </row>
     <row r="4" spans="1:21" ht="16" customHeight="1">
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
     </row>
     <row r="5" spans="1:21" ht="16" customHeight="1">
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
     </row>
     <row r="8" spans="1:21" ht="16" customHeight="1">
       <c r="B8" s="6"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
       <c r="M9" s="52" t="s">
         <v>107</v>
       </c>
@@ -7880,14 +7880,14 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="16" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
       <c r="M10" s="42" t="s">
         <v>106</v>
       </c>
@@ -7903,14 +7903,14 @@
       <c r="U10" s="44"/>
     </row>
     <row r="11" spans="1:21" ht="16" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
       <c r="M11" s="42"/>
       <c r="N11" s="44">
         <v>27</v>
@@ -7938,14 +7938,14 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="16" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
       <c r="M12" s="42"/>
       <c r="N12" s="44">
         <v>29</v>
@@ -8330,16 +8330,16 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
       <c r="M22" s="42"/>
       <c r="N22" s="44">
         <v>29</v>
@@ -8367,14 +8367,14 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
       <c r="M23" s="42"/>
       <c r="N23" s="43" t="s">
         <v>116</v>
@@ -8388,14 +8388,14 @@
       <c r="U23" s="44"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
       <c r="M24" s="42"/>
       <c r="N24" s="44">
         <v>27</v>
@@ -8423,14 +8423,14 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
       <c r="M25" s="42"/>
       <c r="N25" s="44">
         <v>27</v>
@@ -8900,46 +8900,46 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="9" t="s">
@@ -9144,46 +9144,46 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="74"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="9" t="s">
@@ -9340,46 +9340,46 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="63" t="s">
+      <c r="A81" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="78"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="64"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
+      <c r="A83" s="79"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="89"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="9" t="s">
@@ -9632,46 +9632,46 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="63" t="s">
+      <c r="A98" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="63"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="63"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="64"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="79"/>
+      <c r="H100" s="79"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
+      <c r="A101" s="89"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="89"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="9" t="s">
@@ -9855,7 +9855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0838-DBF6-D748-98D7-9545D778A035}">
   <dimension ref="C6:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -9876,27 +9876,27 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:15">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="3:15" ht="16" customHeight="1">
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
     </row>
     <row r="9" spans="3:15" ht="17">
       <c r="C9" s="21" t="s">
@@ -10462,24 +10462,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="10" t="s">
@@ -10645,24 +10645,24 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:9" ht="16" customHeight="1">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="23" t="s">
@@ -10849,24 +10849,24 @@
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="10" t="s">
@@ -11033,24 +11033,24 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:9">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="23" t="s">
@@ -11259,24 +11259,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:9">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="23" t="s">
@@ -11478,8 +11478,8 @@
   </sheetPr>
   <dimension ref="C1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:U7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11495,82 +11495,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:21" ht="16" customHeight="1">
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
     </row>
     <row r="2" spans="3:21">
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
     </row>
     <row r="3" spans="3:21">
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
     </row>
     <row r="5" spans="3:21">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="23" t="s">
@@ -11594,14 +11594,14 @@
       <c r="I7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
     </row>
     <row r="8" spans="3:21">
       <c r="C8" s="25" t="s">
@@ -11974,15 +11974,15 @@
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
       <c r="N17" s="45"/>
       <c r="O17" s="55" t="s">
         <v>96</v>
@@ -12007,13 +12007,13 @@
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
       <c r="N18" s="45"/>
       <c r="O18" s="55" t="s">
         <v>95</v>
@@ -12334,15 +12334,15 @@
       </c>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
       <c r="N26" s="45"/>
       <c r="O26" s="55" t="s">
         <v>101</v>
@@ -12367,13 +12367,13 @@
       </c>
     </row>
     <row r="27" spans="3:21">
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
       <c r="N27" s="45"/>
       <c r="O27" s="55" t="s">
         <v>102</v>
